--- a/sriramModel-nelson-atypical-patientID_7-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_7-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.826416949186441</v>
+        <v>8.825130186304786</v>
       </c>
       <c r="C2">
-        <v>8.825070232818341</v>
+        <v>8.825170233542501</v>
       </c>
       <c r="D2">
-        <v>8.825112034755232</v>
+        <v>8.825110721006284</v>
       </c>
       <c r="E2">
-        <v>8.825131217291716</v>
+        <v>8.825108145093258</v>
       </c>
       <c r="F2">
-        <v>8.825257561909508</v>
+        <v>8.825091996575919</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.852809859882553</v>
+        <v>8.850284903091405</v>
       </c>
       <c r="C3">
-        <v>8.850246633725284</v>
+        <v>8.850361453864394</v>
       </c>
       <c r="D3">
-        <v>8.850240498788342</v>
+        <v>8.850246673705799</v>
       </c>
       <c r="E3">
-        <v>8.850477983213988</v>
+        <v>8.850231728544584</v>
       </c>
       <c r="F3">
-        <v>8.850655478072442</v>
+        <v>8.850246446239307</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.879175689614081</v>
+        <v>8.875468984431365</v>
       </c>
       <c r="C4">
-        <v>8.875561546263935</v>
+        <v>8.875577694254792</v>
       </c>
       <c r="D4">
-        <v>8.875397786529271</v>
+        <v>8.875413574189722</v>
       </c>
       <c r="E4">
-        <v>8.876055269227857</v>
+        <v>8.875378147974672</v>
       </c>
       <c r="F4">
-        <v>8.876207461792395</v>
+        <v>8.875464707231695</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.905512405914592</v>
+        <v>8.900686824284849</v>
       </c>
       <c r="C5">
-        <v>8.901041445052121</v>
+        <v>8.900822640802362</v>
       </c>
       <c r="D5">
-        <v>8.900596187511303</v>
+        <v>8.90061652595735</v>
       </c>
       <c r="E5">
-        <v>8.901877811222732</v>
+        <v>8.900554063254958</v>
       </c>
       <c r="F5">
-        <v>8.901925596166549</v>
+        <v>8.900747718453767</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.931818574825526</v>
+        <v>8.925942321293441</v>
       </c>
       <c r="C6">
-        <v>8.926706191847257</v>
+        <v>8.926099663063281</v>
       </c>
       <c r="D6">
-        <v>8.925847893150561</v>
+        <v>8.925860059305577</v>
       </c>
       <c r="E6">
-        <v>8.927959942880708</v>
+        <v>8.925765432736792</v>
       </c>
       <c r="F6">
-        <v>8.927819878446929</v>
+        <v>8.926095995668017</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.958093136529699</v>
+        <v>8.951238894217694</v>
       </c>
       <c r="C7">
-        <v>8.952568707629423</v>
+        <v>8.951411814400002</v>
       </c>
       <c r="D7">
-        <v>8.951164984052715</v>
+        <v>8.951148163066625</v>
       </c>
       <c r="E7">
-        <v>8.954315204157687</v>
+        <v>8.951017537715115</v>
       </c>
       <c r="F7">
-        <v>8.953897703239065</v>
+        <v>8.951509681384533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.984335278886086</v>
+        <v>8.976579544208086</v>
       </c>
       <c r="C8">
-        <v>8.978635110024131</v>
+        <v>8.976761842979375</v>
       </c>
       <c r="D8">
-        <v>8.976559409952282</v>
+        <v>8.976484311338847</v>
       </c>
       <c r="E8">
-        <v>8.980955550053338</v>
+        <v>8.976315007023311</v>
       </c>
       <c r="F8">
-        <v>8.980163366117102</v>
+        <v>8.976988589290894</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.010544361808655</v>
+        <v>9.001966864949988</v>
       </c>
       <c r="C9">
-        <v>9.004905279650101</v>
+        <v>9.002152200988188</v>
       </c>
       <c r="D9">
-        <v>9.002042957824552</v>
+        <v>9.001871489231393</v>
       </c>
       <c r="E9">
-        <v>9.007889893794168</v>
+        <v>9.001661842183641</v>
       </c>
       <c r="F9">
-        <v>9.006617644480102</v>
+        <v>9.002532224604391</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.036719870224168</v>
+        <v>9.027403051659087</v>
       </c>
       <c r="C10">
-        <v>9.031373774081219</v>
+        <v>9.027585051399242</v>
       </c>
       <c r="D10">
-        <v>9.027627202287064</v>
+        <v>9.027312219891604</v>
       </c>
       <c r="E10">
-        <v>9.035121712282788</v>
+        <v>9.027061436693721</v>
       </c>
       <c r="F10">
-        <v>9.033257528788461</v>
+        <v>9.028139813570961</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.062861381724936</v>
+        <v>9.052889916952921</v>
       </c>
       <c r="C11">
-        <v>9.058030915361272</v>
+        <v>9.053062274698098</v>
       </c>
       <c r="D11">
-        <v>9.053323431052634</v>
+        <v>9.052808589441526</v>
       </c>
       <c r="E11">
-        <v>9.06264567226876</v>
+        <v>9.052516601267996</v>
       </c>
       <c r="F11">
-        <v>9.060076160615923</v>
+        <v>9.053810331165312</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.088968543946669</v>
+        <v>9.078428910851986</v>
       </c>
       <c r="C12">
-        <v>9.084863922101929</v>
+        <v>9.078585476302738</v>
       </c>
       <c r="D12">
-        <v>9.079142535500374</v>
+        <v>9.078362269796996</v>
       </c>
       <c r="E12">
-        <v>9.090443957428096</v>
+        <v>9.078029599975668</v>
       </c>
       <c r="F12">
-        <v>9.087063017476275</v>
+        <v>9.079542527731133</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.115041060206149</v>
+        <v>9.10402114008348</v>
       </c>
       <c r="C13">
-        <v>9.111857966445763</v>
+        <v>9.104155994840029</v>
       </c>
       <c r="D13">
-        <v>9.105094854842672</v>
+        <v>9.103974541590999</v>
       </c>
       <c r="E13">
-        <v>9.118484116274329</v>
+        <v>9.103602176762772</v>
       </c>
       <c r="F13">
-        <v>9.114204354581023</v>
+        <v>9.105334952789999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.141078678349791</v>
+        <v>9.129667385235257</v>
       </c>
       <c r="C14">
-        <v>9.138997097277224</v>
+        <v>9.12977491064505</v>
       </c>
       <c r="D14">
-        <v>9.131189959292303</v>
+        <v>9.129646317134435</v>
       </c>
       <c r="E14">
-        <v>9.146720644246455</v>
+        <v>9.129235586622746</v>
       </c>
       <c r="F14">
-        <v>9.14148389326477</v>
+        <v>9.131185980648482</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.167081181371803</v>
+        <v>9.15536811807803</v>
       </c>
       <c r="C15">
-        <v>9.166264968387884</v>
+        <v>9.155443054249814</v>
       </c>
       <c r="D15">
-        <v>9.157436360745706</v>
+        <v>9.15537816269538</v>
       </c>
       <c r="E15">
-        <v>9.175100899936055</v>
+        <v>9.154930628528204</v>
       </c>
       <c r="F15">
-        <v>9.168883684930382</v>
+        <v>9.157093823743239</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.193048381223388</v>
+        <v>9.181123519644117</v>
       </c>
       <c r="C16">
-        <v>9.193645397207499</v>
+        <v>9.181161015000384</v>
       </c>
       <c r="D16">
-        <v>9.183841141201293</v>
+        <v>9.181170318850754</v>
       </c>
       <c r="E16">
-        <v>9.203572948920508</v>
+        <v>9.180687669587655</v>
       </c>
       <c r="F16">
-        <v>9.196385027626055</v>
+        <v>9.1830565507806</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.218980114228385</v>
+        <v>9.206933500783441</v>
       </c>
       <c r="C17">
-        <v>9.221122758957252</v>
+        <v>9.206929149858754</v>
       </c>
       <c r="D17">
-        <v>9.210409500965884</v>
+        <v>9.207022721130491</v>
       </c>
       <c r="E17">
-        <v>9.232091720954763</v>
+        <v>9.206506676906686</v>
       </c>
       <c r="F17">
-        <v>9.22396929994391</v>
+        <v>9.209072111691157</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.244876237164217</v>
+        <v>9.232797706576308</v>
       </c>
       <c r="C18">
-        <v>9.248682241097267</v>
+        <v>9.232747592489041</v>
       </c>
       <c r="D18">
-        <v>9.237144246292207</v>
+        <v>9.232935020421436</v>
       </c>
       <c r="E18">
-        <v>9.260621677682106</v>
+        <v>9.232387246710246</v>
       </c>
       <c r="F18">
-        <v>9.251618623608575</v>
+        <v>9.235138362094176</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.270736623849391</v>
+        <v>9.258715541275599</v>
       </c>
       <c r="C19">
-        <v>9.276309992137918</v>
+        <v>9.258616262661798</v>
       </c>
       <c r="D19">
-        <v>9.26404526345409</v>
+        <v>9.258906602584743</v>
       </c>
       <c r="E19">
-        <v>9.289136570888466</v>
+        <v>9.258328635046073</v>
       </c>
       <c r="F19">
-        <v>9.279316320460129</v>
+        <v>9.261253072281484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.296561162548347</v>
+        <v>9.284686189871536</v>
       </c>
       <c r="C20">
-        <v>9.303993192876838</v>
+        <v>9.284534875134915</v>
       </c>
       <c r="D20">
-        <v>9.291109054946645</v>
+        <v>9.284936607193211</v>
       </c>
       <c r="E20">
-        <v>9.317617783469368</v>
+        <v>9.284329787339502</v>
       </c>
       <c r="F20">
-        <v>9.3070471905951</v>
+        <v>9.287413934310582</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.322349754035105</v>
+        <v>9.310708614444478</v>
       </c>
       <c r="C21">
-        <v>9.331720068952858</v>
+        <v>9.310502949519115</v>
       </c>
       <c r="D21">
-        <v>9.318328438281645</v>
+        <v>9.311023945747566</v>
       </c>
       <c r="E21">
-        <v>9.346052402510976</v>
+        <v>9.310389365684502</v>
       </c>
       <c r="F21">
-        <v>9.334797617232754</v>
+        <v>9.313618577038387</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.348102310011246</v>
+        <v>9.336781601015321</v>
       </c>
       <c r="C22">
-        <v>9.359479866633103</v>
+        <v>9.336519820465444</v>
       </c>
       <c r="D22">
-        <v>9.34569250940916</v>
+        <v>9.337167319321352</v>
       </c>
       <c r="E22">
-        <v>9.37443155713879</v>
+        <v>9.336505776683305</v>
       </c>
       <c r="F22">
-        <v>9.362555570101726</v>
+        <v>9.339864580802738</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.373818751753102</v>
+        <v>9.362903751944936</v>
       </c>
       <c r="C23">
-        <v>9.387262803057499</v>
+        <v>9.362584645530545</v>
       </c>
       <c r="D23">
-        <v>9.373186943282874</v>
+        <v>9.363365235182673</v>
       </c>
       <c r="E23">
-        <v>9.402749155350264</v>
+        <v>9.3626771965455</v>
       </c>
       <c r="F23">
-        <v>9.390310528422377</v>
+        <v>9.366149489734948</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.39949900888524</v>
+        <v>9.389073511305011</v>
       </c>
       <c r="C24">
-        <v>9.415060003702154</v>
+        <v>9.388696412715486</v>
       </c>
       <c r="D24">
-        <v>9.40079463023876</v>
+        <v>9.389616024280027</v>
       </c>
       <c r="E24">
-        <v>9.431001023662699</v>
+        <v>9.388901596238799</v>
       </c>
       <c r="F24">
-        <v>9.41805336034006</v>
+        <v>9.392470820762604</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.425143018337334</v>
+        <v>9.415289169437397</v>
       </c>
       <c r="C25">
-        <v>9.442863432938854</v>
+        <v>9.414853955177772</v>
       </c>
       <c r="D25">
-        <v>9.428496578976413</v>
+        <v>9.415917854599458</v>
       </c>
       <c r="E25">
-        <v>9.459184278144116</v>
+        <v>9.415176764868612</v>
       </c>
       <c r="F25">
-        <v>9.44577618257807</v>
+        <v>9.418826071245027</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.450750723140988</v>
+        <v>9.441548883666526</v>
       </c>
       <c r="C26">
-        <v>9.470665823214231</v>
+        <v>9.441055958303609</v>
       </c>
       <c r="D26">
-        <v>9.456272939674156</v>
+        <v>9.442268752221006</v>
       </c>
       <c r="E26">
-        <v>9.487296918401837</v>
+        <v>9.441500333118494</v>
       </c>
       <c r="F26">
-        <v>9.473472214534679</v>
+        <v>9.445212726589245</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.476322072443244</v>
+        <v>9.467850685049257</v>
       </c>
       <c r="C27">
-        <v>9.498460603952898</v>
+        <v>9.467300970054584</v>
       </c>
       <c r="D27">
-        <v>9.484103989729892</v>
+        <v>9.468666609568453</v>
       </c>
       <c r="E27">
-        <v>9.515337553408909</v>
+        <v>9.467869794380276</v>
       </c>
       <c r="F27">
-        <v>9.501135637178633</v>
+        <v>9.471628267655802</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.501857020386581</v>
+        <v>9.494192495168232</v>
       </c>
       <c r="C28">
-        <v>9.526241835065822</v>
+        <v>9.493587410820039</v>
       </c>
       <c r="D28">
-        <v>9.511970952185957</v>
+        <v>9.495109201563974</v>
       </c>
       <c r="E28">
-        <v>9.543305211686343</v>
+        <v>9.494282524674814</v>
       </c>
       <c r="F28">
-        <v>9.5287614631384</v>
+        <v>9.498070178088721</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.527355525808453</v>
+        <v>9.520572138058993</v>
       </c>
       <c r="C29">
-        <v>9.554004145351914</v>
+        <v>9.519913580680612</v>
       </c>
       <c r="D29">
-        <v>9.539856573451072</v>
+        <v>9.521594196650785</v>
       </c>
       <c r="E29">
-        <v>9.571199216878274</v>
+        <v>9.520735801277437</v>
       </c>
       <c r="F29">
-        <v>9.556345420312526</v>
+        <v>9.524535948666989</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.552817551866385</v>
+        <v>9.546987351187237</v>
       </c>
       <c r="C30">
-        <v>9.581742675341154</v>
+        <v>9.546277669518778</v>
       </c>
       <c r="D30">
-        <v>9.567745454743143</v>
+        <v>9.548119171820355</v>
       </c>
       <c r="E30">
-        <v>9.599019099773452</v>
+        <v>9.547226820762621</v>
       </c>
       <c r="F30">
-        <v>9.58388384794304</v>
+        <v>9.551023086177937</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.578243065428094</v>
+        <v>9.573435798661281</v>
       </c>
       <c r="C31">
-        <v>9.609453024719887</v>
+        <v>9.572677765500798</v>
       </c>
       <c r="D31">
-        <v>9.595624167863022</v>
+        <v>9.574681623836147</v>
       </c>
       <c r="E31">
-        <v>9.626764539879563</v>
+        <v>9.573752714503948</v>
       </c>
       <c r="F31">
-        <v>9.611373607672492</v>
+        <v>9.577529111729531</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.603632036759585</v>
+        <v>9.599915078562436</v>
       </c>
       <c r="C32">
-        <v>9.637131205252821</v>
+        <v>9.599111864821527</v>
       </c>
       <c r="D32">
-        <v>9.623481214183226</v>
+        <v>9.601278981196414</v>
       </c>
       <c r="E32">
-        <v>9.654435323571493</v>
+        <v>9.600310563783767</v>
       </c>
       <c r="F32">
-        <v>9.638812006823136</v>
+        <v>9.604051572536163</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.628984439195296</v>
+        <v>9.626422735377389</v>
       </c>
       <c r="C33">
-        <v>9.664773598432992</v>
+        <v>9.62557788020978</v>
       </c>
       <c r="D33">
-        <v>9.651306883225335</v>
+        <v>9.62790861386822</v>
       </c>
       <c r="E33">
-        <v>9.682031314827505</v>
+        <v>9.626897413614282</v>
       </c>
       <c r="F33">
-        <v>9.66619673206359</v>
+        <v>9.630588036633368</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.65430024885668</v>
+        <v>9.652956267582711</v>
       </c>
       <c r="C34">
-        <v>9.692376917529089</v>
+        <v>9.652073649489093</v>
       </c>
       <c r="D34">
-        <v>9.679093058644352</v>
+        <v>9.654567842891009</v>
       </c>
       <c r="E34">
-        <v>9.709552434895471</v>
+        <v>9.653510285794523</v>
       </c>
       <c r="F34">
-        <v>9.693525793766472</v>
+        <v>9.657136103672959</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.679579444446059</v>
+        <v>9.679513136258588</v>
       </c>
       <c r="C35">
-        <v>9.719938173513393</v>
+        <v>9.67859694375371</v>
       </c>
       <c r="D35">
-        <v>9.706833007611046</v>
+        <v>9.681253950018602</v>
       </c>
       <c r="E35">
-        <v>9.736998646725596</v>
+        <v>9.680146189906209</v>
       </c>
       <c r="F35">
-        <v>9.720797478472802</v>
+        <v>9.683693401330322</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.704822007069357</v>
+        <v>9.706090775255978</v>
       </c>
       <c r="C36">
-        <v>9.747454644867789</v>
+        <v>9.70514547496197</v>
       </c>
       <c r="D36">
-        <v>9.734521172826659</v>
+        <v>9.707964185987972</v>
       </c>
       <c r="E36">
-        <v>9.764369944837313</v>
+        <v>9.706802133682411</v>
       </c>
       <c r="F36">
-        <v>9.748010308545091</v>
+        <v>9.71025759194619</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.730027919983844</v>
+        <v>9.732686596799589</v>
       </c>
       <c r="C37">
-        <v>9.774923850524329</v>
+        <v>9.731716903849684</v>
       </c>
       <c r="D37">
-        <v>9.76215298367091</v>
+        <v>9.734695780042376</v>
       </c>
       <c r="E37">
-        <v>9.791666347992322</v>
+        <v>9.733475132505639</v>
       </c>
       <c r="F37">
-        <v>9.77516300822341</v>
+        <v>9.736826372267346</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.755197168491309</v>
+        <v>9.759298000415951</v>
       </c>
       <c r="C38">
-        <v>9.80234352587417</v>
+        <v>9.758308847441166</v>
       </c>
       <c r="D38">
-        <v>9.789724688196042</v>
+        <v>9.761445945557789</v>
       </c>
       <c r="E38">
-        <v>9.818887892772507</v>
+        <v>9.760162218206174</v>
       </c>
       <c r="F38">
-        <v>9.802254474721137</v>
+        <v>9.763397475840172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.780329739767426</v>
+        <v>9.785922379514128</v>
       </c>
       <c r="C39">
-        <v>9.829711601290434</v>
+        <v>9.784918885993939</v>
       </c>
       <c r="D39">
-        <v>9.817233209156688</v>
+        <v>9.788211890524654</v>
       </c>
       <c r="E39">
-        <v>9.846034629397387</v>
+        <v>9.786860446192197</v>
       </c>
       <c r="F39">
-        <v>9.829283753883555</v>
+        <v>9.789968675199527</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.805425622734329</v>
+        <v>9.812557126486054</v>
       </c>
       <c r="C40">
-        <v>9.857026183117261</v>
+        <v>9.811544569555426</v>
       </c>
       <c r="D40">
-        <v>9.844676024840373</v>
+        <v>9.814990820559505</v>
       </c>
       <c r="E40">
-        <v>9.873106618757829</v>
+        <v>9.813566902135625</v>
       </c>
       <c r="F40">
-        <v>9.856250019397264</v>
+        <v>9.81653778086014</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.830484807901401</v>
+        <v>9.839199640845971</v>
       </c>
       <c r="C41">
-        <v>9.884285536652442</v>
+        <v>9.838183426476112</v>
       </c>
       <c r="D41">
-        <v>9.87205106880586</v>
+        <v>9.841779947526229</v>
       </c>
       <c r="E41">
-        <v>9.900103929982425</v>
+        <v>9.840278707932661</v>
       </c>
       <c r="F41">
-        <v>9.883152555362582</v>
+        <v>9.843102645406411</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9.855507287158424</v>
+        <v>9.865847332019861</v>
       </c>
       <c r="C42">
-        <v>9.911488070998969</v>
+        <v>9.864832965180996</v>
       </c>
       <c r="D42">
-        <v>9.899356647392951</v>
+        <v>9.86857649366279</v>
       </c>
       <c r="E42">
-        <v>9.927026638677328</v>
+        <v>9.86699302713177</v>
       </c>
       <c r="F42">
-        <v>9.909990741332864</v>
+        <v>9.869661160290166</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.880493053970273</v>
+        <v>9.892497625983955</v>
       </c>
       <c r="C43">
-        <v>9.938632325507129</v>
+        <v>9.891490688131654</v>
       </c>
       <c r="D43">
-        <v>9.926591372137631</v>
+        <v>9.895377696257816</v>
       </c>
       <c r="E43">
-        <v>9.953874825516122</v>
+        <v>9.893707069079642</v>
       </c>
       <c r="F43">
-        <v>9.936764039133413</v>
+        <v>9.896211260148235</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.905442102674158</v>
+        <v>9.919147969531311</v>
       </c>
       <c r="C44">
-        <v>9.965716957718508</v>
+        <v>9.918154086357406</v>
       </c>
       <c r="D44">
-        <v>9.95375410452268</v>
+        <v>9.922180813850909</v>
       </c>
       <c r="E44">
-        <v>9.980648574740048</v>
+        <v>9.920418092751881</v>
       </c>
       <c r="F44">
-        <v>9.963471982291484</v>
+        <v>9.922750919711413</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.930354429103996</v>
+        <v>9.945795833438826</v>
       </c>
       <c r="C45">
-        <v>9.992740732563576</v>
+        <v>9.94482065748943</v>
       </c>
       <c r="D45">
-        <v>9.980843911686426</v>
+        <v>9.94898312843749</v>
       </c>
       <c r="E45">
-        <v>10.00734797358402</v>
+        <v>9.947123410079719</v>
       </c>
       <c r="F45">
-        <v>9.990114167004723</v>
+        <v>9.949278156853845</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.95523003027489</v>
+        <v>9.97243871800938</v>
       </c>
       <c r="C46">
-        <v>10.01970251280912</v>
+        <v>9.971487898883527</v>
       </c>
       <c r="D46">
-        <v>10.00786002987823</v>
+        <v>9.975781951599068</v>
       </c>
       <c r="E46">
-        <v>10.03397311223764</v>
+        <v>9.97382038886018</v>
       </c>
       <c r="F46">
-        <v>10.01669024422324</v>
+        <v>9.975791030297765</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.98006890382918</v>
+        <v>9.999074154725859</v>
       </c>
       <c r="C47">
-        <v>10.04660125015777</v>
+        <v>9.998153320571568</v>
       </c>
       <c r="D47">
-        <v>10.0348018347911</v>
+        <v>10.00257462626126</v>
       </c>
       <c r="E47">
-        <v>10.06052408298459</v>
+        <v>10.00050645476841</v>
       </c>
       <c r="F47">
-        <v>10.04319991224844</v>
+        <v>10.00228764166261</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.00487104902113</v>
+        <v>10.02569971023561</v>
       </c>
       <c r="C48">
-        <v>10.07343597712</v>
+        <v>10.02481444515015</v>
       </c>
       <c r="D48">
-        <v>10.06166881709944</v>
+        <v>10.02935853146168</v>
       </c>
       <c r="E48">
-        <v>10.08700097952088</v>
+        <v>10.0271790931322</v>
       </c>
       <c r="F48">
-        <v>10.06964291112445</v>
+        <v>10.02876613414969</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.02963646553643</v>
+        <v>10.05231298932131</v>
       </c>
       <c r="C49">
-        <v>10.10020580055112</v>
+        <v>10.05146881265865</v>
       </c>
       <c r="D49">
-        <v>10.08846056302196</v>
+        <v>10.05613108374016</v>
       </c>
       <c r="E49">
-        <v>10.11340389706781</v>
+        <v>10.05383585037891</v>
       </c>
       <c r="F49">
-        <v>10.09601901757957</v>
+        <v>10.0552246929448</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10.0543651540635</v>
+        <v>10.07891163612366</v>
       </c>
       <c r="C50">
-        <v>10.12690989537654</v>
+        <v>10.07811398652768</v>
       </c>
       <c r="D50">
-        <v>10.11517673835934</v>
+        <v>10.08288974123962</v>
       </c>
       <c r="E50">
-        <v>10.1397329313802</v>
+        <v>10.08047433518415</v>
       </c>
       <c r="F50">
-        <v>10.12232804063396</v>
+        <v>10.08166154420401</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.07905711634964</v>
+        <v>10.10549333784359</v>
       </c>
       <c r="C51">
-        <v>10.15354749887227</v>
+        <v>10.10474755389039</v>
       </c>
       <c r="D51">
-        <v>10.1418170751397</v>
+        <v>10.10963200390982</v>
       </c>
       <c r="E51">
-        <v>10.16598817960499</v>
+        <v>10.10709221902052</v>
       </c>
       <c r="F51">
-        <v>10.14856981776707</v>
+        <v>10.10807495536155</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10.10371235472611</v>
+        <v>10.13205582521217</v>
       </c>
       <c r="C52">
-        <v>10.18011790473491</v>
+        <v>10.131367132754</v>
       </c>
       <c r="D52">
-        <v>10.16838136072819</v>
+        <v>10.13635541776887</v>
       </c>
       <c r="E52">
-        <v>10.19216973825933</v>
+        <v>10.13368723654873</v>
       </c>
       <c r="F52">
-        <v>10.17474421150636</v>
+        <v>10.13446323414982</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10.12833087278426</v>
+        <v>10.15859687465918</v>
       </c>
       <c r="C53">
-        <v>10.20662050156178</v>
+        <v>10.15797036985943</v>
       </c>
       <c r="D53">
-        <v>10.19486942379768</v>
+        <v>10.16305757389447</v>
       </c>
       <c r="E53">
-        <v>10.21827770541031</v>
+        <v>10.16025718580436</v>
       </c>
       <c r="F53">
-        <v>10.2008511088128</v>
+        <v>10.1608247284265</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10.15291267675635</v>
+        <v>10.18511431008014</v>
       </c>
       <c r="C54">
-        <v>10.23305487965753</v>
+        <v>10.1845549498297</v>
       </c>
       <c r="D54">
-        <v>10.22128115155732</v>
+        <v>10.18973611265734</v>
       </c>
       <c r="E54">
-        <v>10.24431218003738</v>
+        <v>10.18679992818369</v>
       </c>
       <c r="F54">
-        <v>10.22689042390372</v>
+        <v>10.18715782562009</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10.17745777399039</v>
+        <v>10.21160600288068</v>
       </c>
       <c r="C55">
-        <v>10.25942068870314</v>
+        <v>10.21111858988748</v>
       </c>
       <c r="D55">
-        <v>10.24761644627973</v>
+        <v>10.21638872219499</v>
       </c>
       <c r="E55">
-        <v>10.27027326095245</v>
+        <v>10.21331338805346</v>
       </c>
       <c r="F55">
-        <v>10.25286208814965</v>
+        <v>10.21346095203265</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.20196617228037</v>
+        <v>10.23806987408629</v>
       </c>
       <c r="C56">
-        <v>10.28571759368741</v>
+        <v>10.2376590504779</v>
       </c>
       <c r="D56">
-        <v>10.27387524319213</v>
+        <v>10.24301314205839</v>
       </c>
       <c r="E56">
-        <v>10.29616104724921</v>
+        <v>10.23979555226186</v>
       </c>
       <c r="F56">
-        <v>10.27876604664869</v>
+        <v>10.23973257258171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10.22643787988543</v>
+        <v>10.26450389415637</v>
       </c>
       <c r="C57">
-        <v>10.31194527499409</v>
+        <v>10.26417412840685</v>
       </c>
       <c r="D57">
-        <v>10.30005750066994</v>
+        <v>10.26960716161875</v>
       </c>
       <c r="E57">
-        <v>10.32197563824555</v>
+        <v>10.26624446953566</v>
       </c>
       <c r="F57">
-        <v>10.30460225673098</v>
+        <v>10.26597118977102</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10.25087290554324</v>
+        <v>10.29090608373502</v>
       </c>
       <c r="C58">
-        <v>10.3381034284196</v>
+        <v>10.29066166708952</v>
       </c>
       <c r="D58">
-        <v>10.32616319668665</v>
+        <v>10.29616862302214</v>
       </c>
       <c r="E58">
-        <v>10.34771713343544</v>
+        <v>10.29265824975019</v>
       </c>
       <c r="F58">
-        <v>10.33037068718361</v>
+        <v>10.29217534351509</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10.27527125842983</v>
+        <v>10.31727451455419</v>
       </c>
       <c r="C59">
-        <v>10.36419176450231</v>
+        <v>10.31711955040176</v>
       </c>
       <c r="D59">
-        <v>10.35219232594877</v>
+        <v>10.32269541946056</v>
       </c>
       <c r="E59">
-        <v>10.37338563244829</v>
+        <v>10.31903506288797</v>
       </c>
       <c r="F59">
-        <v>10.35607131672686</v>
+        <v>10.31834361001543</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10.29963294812488</v>
+        <v>10.34360730868104</v>
       </c>
       <c r="C60">
-        <v>10.39021000828133</v>
+        <v>10.34354571016356</v>
       </c>
       <c r="D60">
-        <v>10.37814489805825</v>
+        <v>10.34918549769668</v>
       </c>
       <c r="E60">
-        <v>10.39898123502237</v>
+        <v>10.34537313804642</v>
       </c>
       <c r="F60">
-        <v>10.38170413315979</v>
+        <v>10.34447460151377</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10.32395798459638</v>
+        <v>10.36990263948228</v>
       </c>
       <c r="C61">
-        <v>10.41615789906007</v>
+        <v>10.36993812294293</v>
       </c>
       <c r="D61">
-        <v>10.40402093495873</v>
+        <v>10.37563685606131</v>
       </c>
       <c r="E61">
-        <v>10.42450404097746</v>
+        <v>10.37167076277272</v>
       </c>
       <c r="F61">
-        <v>10.4072691325826</v>
+        <v>10.3705669652488</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10.3482463781892</v>
+        <v>10.39615873099065</v>
       </c>
       <c r="C62">
-        <v>10.44203518989601</v>
+        <v>10.39629481326147</v>
       </c>
       <c r="D62">
-        <v>10.42982046900513</v>
+        <v>10.40204754669819</v>
       </c>
       <c r="E62">
-        <v>10.44995415018567</v>
+        <v>10.39792628147475</v>
       </c>
       <c r="F62">
-        <v>10.43276631859099</v>
+        <v>10.39661938304802</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10.37249813960671</v>
+        <v>10.42237385779059</v>
       </c>
       <c r="C63">
-        <v>10.46784164710721</v>
+        <v>10.42261385384881</v>
       </c>
       <c r="D63">
-        <v>10.45554354194453</v>
+        <v>10.42841567339296</v>
       </c>
       <c r="E63">
-        <v>10.47533166255235</v>
+        <v>10.42413809490796</v>
       </c>
       <c r="F63">
-        <v>10.45819570154047</v>
+        <v>10.42263057044359</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10.39671327988429</v>
+        <v>10.44854634515941</v>
       </c>
       <c r="C64">
-        <v>10.49357704984301</v>
+        <v>10.44889336527987</v>
       </c>
       <c r="D64">
-        <v>10.48119020361039</v>
+        <v>10.45473939345675</v>
       </c>
       <c r="E64">
-        <v>10.5006366779947</v>
+        <v>10.45030465742236</v>
       </c>
       <c r="F64">
-        <v>10.48355729794478</v>
+        <v>10.4485992761063</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10.42089181038352</v>
+        <v>10.47467456800687</v>
       </c>
       <c r="C65">
-        <v>10.51924118967086</v>
+        <v>10.47513151847052</v>
       </c>
       <c r="D65">
-        <v>10.50676051101512</v>
+        <v>10.48101691559762</v>
       </c>
       <c r="E65">
-        <v>10.525869296447</v>
+        <v>10.47642447756263</v>
       </c>
       <c r="F65">
-        <v>10.50885112995594</v>
+        <v>10.47452428108392</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.4450337427776</v>
+        <v>10.50075695097046</v>
       </c>
       <c r="C66">
-        <v>10.54483387010718</v>
+        <v>10.50132653199995</v>
       </c>
       <c r="D66">
-        <v>10.53225452710302</v>
+        <v>10.50724650134905</v>
       </c>
       <c r="E66">
-        <v>10.55102961776769</v>
+        <v>10.50249611485953</v>
       </c>
       <c r="F66">
-        <v>10.53407722479585</v>
+        <v>10.50040439814908</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10.46913908903725</v>
+        <v>10.52679196754035</v>
       </c>
       <c r="C67">
-        <v>10.57035490611999</v>
+        <v>10.52747667582459</v>
       </c>
       <c r="D67">
-        <v>10.55767231999075</v>
+        <v>10.53342646307839</v>
       </c>
       <c r="E67">
-        <v>10.57611774189253</v>
+        <v>10.52851817994053</v>
       </c>
       <c r="F67">
-        <v>10.55923561436754</v>
+        <v>10.52623847109217</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10.49320786141755</v>
+        <v>10.55277813943447</v>
       </c>
       <c r="C68">
-        <v>10.59580412368609</v>
+        <v>10.5535802673602</v>
       </c>
       <c r="D68">
-        <v>10.58301396238135</v>
+        <v>10.55955516499628</v>
       </c>
       <c r="E68">
-        <v>10.60113376882085</v>
+        <v>10.55448933215611</v>
       </c>
       <c r="F68">
-        <v>10.58432633486559</v>
+        <v>10.55202537405149</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10.51724007247169</v>
+        <v>10.57871403618896</v>
       </c>
       <c r="C69">
-        <v>10.62118135935813</v>
+        <v>10.57963567548082</v>
       </c>
       <c r="D69">
-        <v>10.60827953104357</v>
+        <v>10.58563102127513</v>
       </c>
       <c r="E69">
-        <v>10.62607779845249</v>
+        <v>10.58040827901331</v>
       </c>
       <c r="F69">
-        <v>10.60934942636448</v>
+        <v>10.57776401081684</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.54123573497369</v>
+        <v>10.60459827401701</v>
       </c>
       <c r="C70">
-        <v>10.64648645982538</v>
+        <v>10.60564131625503</v>
       </c>
       <c r="D70">
-        <v>10.63346910632761</v>
+        <v>10.61165249670809</v>
       </c>
       <c r="E70">
-        <v>10.65094993055081</v>
+        <v>10.60627377484068</v>
       </c>
       <c r="F70">
-        <v>10.63430493246175</v>
+        <v>10.60345331419033</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.56519486203468</v>
+        <v>10.63042951533265</v>
       </c>
       <c r="C71">
-        <v>10.67171928150791</v>
+        <v>10.6315956565852</v>
       </c>
       <c r="D71">
-        <v>10.65858277167324</v>
+        <v>10.63761810484022</v>
       </c>
       <c r="E71">
-        <v>10.67575026494852</v>
+        <v>10.63208461898224</v>
       </c>
       <c r="F71">
-        <v>10.6591928999538</v>
+        <v>10.62909224526978</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.58911746691554</v>
+        <v>10.65620646776392</v>
       </c>
       <c r="C72">
-        <v>10.69687969012633</v>
+        <v>10.65749721011103</v>
       </c>
       <c r="D72">
-        <v>10.68362061328054</v>
+        <v>10.66352640855565</v>
       </c>
       <c r="E72">
-        <v>10.70047890133546</v>
+        <v>10.65783965451805</v>
       </c>
       <c r="F72">
-        <v>10.68401337857358</v>
+        <v>10.6546797928698</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10.61300356319598</v>
+        <v>10.68192788326214</v>
       </c>
       <c r="C73">
-        <v>10.72196756025317</v>
+        <v>10.68334454011058</v>
       </c>
       <c r="D73">
-        <v>10.70858271962546</v>
+        <v>10.68937601854268</v>
       </c>
       <c r="E73">
-        <v>10.7251359393983</v>
+        <v>10.68353776722168</v>
       </c>
       <c r="F73">
-        <v>10.70876642081725</v>
+        <v>10.68021497278304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10.63685316464013</v>
+        <v>10.70759255735926</v>
       </c>
       <c r="C74">
-        <v>10.74698277505295</v>
+        <v>10.70913625629027</v>
       </c>
       <c r="D74">
-        <v>10.7334691813929</v>
+        <v>10.71516559313648</v>
       </c>
       <c r="E74">
-        <v>10.74972147876237</v>
+        <v>10.70917788388377</v>
       </c>
       <c r="F74">
-        <v>10.73345208169767</v>
+        <v>10.70569682725276</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.66066628522654</v>
+        <v>10.73319932804231</v>
       </c>
       <c r="C75">
-        <v>10.7719252257925</v>
+        <v>10.73487101590712</v>
       </c>
       <c r="D75">
-        <v>10.75828009081814</v>
+        <v>10.7408938368509</v>
       </c>
       <c r="E75">
-        <v>10.77423561899862</v>
+        <v>10.73475897123278</v>
       </c>
       <c r="F75">
-        <v>10.75807041851061</v>
+        <v>10.73112442423415</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10.68444293915571</v>
+        <v>10.75874707485323</v>
       </c>
       <c r="C76">
-        <v>10.79679481160979</v>
+        <v>10.76054752229754</v>
       </c>
       <c r="D76">
-        <v>10.78301554209373</v>
+        <v>10.76655950042363</v>
       </c>
       <c r="E76">
-        <v>10.79867845963687</v>
+        <v>10.76028003471065</v>
       </c>
       <c r="F76">
-        <v>10.7826214906898</v>
+        <v>10.75649685689581</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.70818314083031</v>
+        <v>10.78423471802688</v>
       </c>
       <c r="C77">
-        <v>10.82159143910992</v>
+        <v>10.78616452426088</v>
       </c>
       <c r="D77">
-        <v>10.80767563087082</v>
+        <v>10.7921613792215</v>
       </c>
       <c r="E77">
-        <v>10.82305010014002</v>
+        <v>10.78574011699176</v>
       </c>
       <c r="F77">
-        <v>10.80710535951532</v>
+        <v>10.78181324290515</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.73188690483642</v>
+        <v>10.80966121761144</v>
       </c>
       <c r="C78">
-        <v>10.84631502205196</v>
+        <v>10.8117208157312</v>
       </c>
       <c r="D78">
-        <v>10.83226045399383</v>
+        <v>10.81769831311376</v>
       </c>
       <c r="E78">
-        <v>10.8473506398999</v>
+        <v>10.81113829713044</v>
       </c>
       <c r="F78">
-        <v>10.83152208819793</v>
+        <v>10.8070727239391</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.75555424597533</v>
+        <v>10.83502557215882</v>
       </c>
       <c r="C79">
-        <v>10.87096548104476</v>
+        <v>10.83721523419561</v>
       </c>
       <c r="D79">
-        <v>10.85677010964797</v>
+        <v>10.84316918525252</v>
       </c>
       <c r="E79">
-        <v>10.87158017828281</v>
+        <v>10.83647368896855</v>
       </c>
       <c r="F79">
-        <v>10.85587174132245</v>
+        <v>10.83227446501348</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10.77918517921338</v>
+        <v>10.86032681848282</v>
       </c>
       <c r="C80">
-        <v>10.89554274323386</v>
+        <v>10.86264666085428</v>
       </c>
       <c r="D80">
-        <v>10.88120469676482</v>
+        <v>10.86857292147501</v>
       </c>
       <c r="E80">
-        <v>10.89573881457564</v>
+        <v>10.86174544035044</v>
       </c>
       <c r="F80">
-        <v>10.88015438512754</v>
+        <v>10.85741765398649</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10.80277971970676</v>
+        <v>10.88556402944634</v>
       </c>
       <c r="C81">
-        <v>10.92004674203214</v>
+        <v>10.88801401866655</v>
       </c>
       <c r="D81">
-        <v>10.90556431543065</v>
+        <v>10.89390848923112</v>
       </c>
       <c r="E81">
-        <v>10.91982664795654</v>
+        <v>10.88695273163054</v>
       </c>
       <c r="F81">
-        <v>10.90437008723618</v>
+        <v>10.88250150094975</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10.82633788278389</v>
+        <v>10.91073631397038</v>
       </c>
       <c r="C82">
-        <v>10.9444774168777</v>
+        <v>10.91331627256605</v>
       </c>
       <c r="D82">
-        <v>10.92984906632737</v>
+        <v>10.91917489704366</v>
       </c>
       <c r="E82">
-        <v>10.94384377761471</v>
+        <v>10.91209477491402</v>
       </c>
       <c r="F82">
-        <v>10.92851891662226</v>
+        <v>10.90752523770754</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10.84985968394152</v>
+        <v>10.93584281584801</v>
       </c>
       <c r="C83">
-        <v>10.96883471292677</v>
+        <v>10.93855242749499</v>
       </c>
       <c r="D83">
-        <v>10.95405905090786</v>
+        <v>10.94437119357613</v>
       </c>
       <c r="E83">
-        <v>10.96779030265176</v>
+        <v>10.93717081261754</v>
       </c>
       <c r="F83">
-        <v>10.95260094341463</v>
+        <v>10.93248811732495</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10.87334513884075</v>
+        <v>10.96088271229089</v>
       </c>
       <c r="C84">
-        <v>10.99311858085963</v>
+        <v>10.96372152844301</v>
       </c>
       <c r="D84">
-        <v>10.97819437120784</v>
+        <v>10.96949646681951</v>
       </c>
       <c r="E84">
-        <v>10.9916663220545</v>
+        <v>10.96218011682351</v>
       </c>
       <c r="F84">
-        <v>10.97661623884148</v>
+        <v>10.95738941342491</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>10.89679426329962</v>
+        <v>10.98585521351086</v>
       </c>
       <c r="C85">
-        <v>11.01732897660379</v>
+        <v>10.98882265856661</v>
       </c>
       <c r="D85">
-        <v>11.00225512987308</v>
+        <v>10.99454984331121</v>
       </c>
       <c r="E85">
-        <v>11.0154719347618</v>
+        <v>10.98712198782937</v>
       </c>
       <c r="F85">
-        <v>11.00056487509644</v>
+        <v>10.98222841962751</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10.92020707308635</v>
+        <v>11.01075956155523</v>
       </c>
       <c r="C86">
-        <v>11.04146585427836</v>
+        <v>11.01385493905604</v>
       </c>
       <c r="D86">
-        <v>11.02624143005562</v>
+        <v>11.01953048730681</v>
       </c>
       <c r="E86">
-        <v>11.03920723965162</v>
+        <v>11.01199575362168</v>
       </c>
       <c r="F86">
-        <v>11.02444691304524</v>
+        <v>11.00700444972308</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10.94358358254459</v>
+        <v>11.03559502923981</v>
       </c>
       <c r="C87">
-        <v>11.0655291510023</v>
+        <v>11.0388175277961</v>
       </c>
       <c r="D87">
-        <v>11.0501533753454</v>
+        <v>11.04443759996327</v>
       </c>
       <c r="E87">
-        <v>11.0628723355229</v>
+        <v>11.03680076844588</v>
       </c>
       <c r="F87">
-        <v>11.04826245526449</v>
+        <v>11.03171683598494</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>10.96692380602416</v>
+        <v>11.06036091941875</v>
       </c>
       <c r="C88">
-        <v>11.08951880610666</v>
+        <v>11.0637096185617</v>
       </c>
       <c r="D88">
-        <v>11.07399106972995</v>
+        <v>11.06927041854637</v>
       </c>
       <c r="E88">
-        <v>11.0864673211139</v>
+        <v>11.06153641234805</v>
       </c>
       <c r="F88">
-        <v>11.07201155984586</v>
+        <v>11.05636492945144</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10.99022775818505</v>
+        <v>11.08505656454504</v>
       </c>
       <c r="C89">
-        <v>11.11343476265589</v>
+        <v>11.08853043986901</v>
       </c>
       <c r="D89">
-        <v>11.09775461756768</v>
+        <v>11.09402821564212</v>
       </c>
       <c r="E89">
-        <v>11.10999229508582</v>
+        <v>11.0862020898095</v>
       </c>
       <c r="F89">
-        <v>11.0956942982846</v>
+        <v>11.0809481000572</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11.01349545377672</v>
+        <v>11.1096813247412</v>
       </c>
       <c r="C90">
-        <v>11.13727697014228</v>
+        <v>11.11327925413344</v>
       </c>
       <c r="D90">
-        <v>11.12144412351179</v>
+        <v>11.11871029836764</v>
       </c>
       <c r="E90">
-        <v>11.13344735603402</v>
+        <v>11.11079722933913</v>
       </c>
       <c r="F90">
-        <v>11.11931074798128</v>
+        <v>11.10546573456268</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>11.03672690772874</v>
+        <v>11.13423458764333</v>
       </c>
       <c r="C91">
-        <v>11.16104538418565</v>
+        <v>11.13795535671866</v>
       </c>
       <c r="D91">
-        <v>11.14505969250087</v>
+        <v>11.14331600761873</v>
       </c>
       <c r="E91">
-        <v>11.15683260249094</v>
+        <v>11.13532128216907</v>
       </c>
       <c r="F91">
-        <v>11.14286098727947</v>
+        <v>11.12991723737787</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>11.05992213515345</v>
+        <v>11.15871576721499</v>
       </c>
       <c r="C92">
-        <v>11.1847399659157</v>
+        <v>11.1625580748739</v>
       </c>
       <c r="D92">
-        <v>11.16860142970332</v>
+        <v>11.16784471730373</v>
       </c>
       <c r="E92">
-        <v>11.18014813291625</v>
+        <v>11.15977372191192</v>
       </c>
       <c r="F92">
-        <v>11.16634509374681</v>
+        <v>11.1543020302625</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>11.08308115133765</v>
+        <v>11.18312430297963</v>
       </c>
       <c r="C93">
-        <v>11.20836068087704</v>
+        <v>11.18708676691579</v>
       </c>
       <c r="D93">
-        <v>11.19206944055105</v>
+        <v>11.19229583357457</v>
       </c>
       <c r="E93">
-        <v>11.20339404569686</v>
+        <v>11.18415404330137</v>
       </c>
       <c r="F93">
-        <v>11.18976314508091</v>
+        <v>11.17861955068284</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>11.1062039717412</v>
+        <v>11.20745965935021</v>
       </c>
       <c r="C94">
-        <v>11.23190750101628</v>
+        <v>11.21154082128873</v>
       </c>
       <c r="D94">
-        <v>11.21546383064356</v>
+        <v>11.21666879408512</v>
       </c>
       <c r="E94">
-        <v>11.22657043914819</v>
+        <v>11.20846176191129</v>
       </c>
       <c r="F94">
-        <v>11.21311521949146</v>
+        <v>11.20286925256241</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>11.1292906119864</v>
+        <v>11.23172132426233</v>
       </c>
       <c r="C95">
-        <v>11.25538040299564</v>
+        <v>11.23591965553228</v>
       </c>
       <c r="D95">
-        <v>11.23878470571309</v>
+        <v>11.24096306724218</v>
       </c>
       <c r="E95">
-        <v>11.24967741150934</v>
+        <v>11.23269641294925</v>
       </c>
       <c r="F95">
-        <v>11.23640139574785</v>
+        <v>11.22705060559419</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11.15234108785015</v>
+        <v>11.25590880930164</v>
       </c>
       <c r="C96">
-        <v>11.27877936743592</v>
+        <v>11.26022271562912</v>
       </c>
       <c r="D96">
-        <v>11.26203217169655</v>
+        <v>11.26517815145981</v>
       </c>
       <c r="E96">
-        <v>11.27271506091548</v>
+        <v>11.25685755101401</v>
       </c>
       <c r="F96">
-        <v>11.25962175312016</v>
+        <v>11.25116309428733</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>11.17535541527362</v>
+        <v>11.28002164798279</v>
       </c>
       <c r="C97">
-        <v>11.30210438052895</v>
+        <v>11.28444947478947</v>
       </c>
       <c r="D97">
-        <v>11.28520633460896</v>
+        <v>11.28931357443279</v>
       </c>
       <c r="E97">
-        <v>11.29568348552991</v>
+        <v>11.28094474895899</v>
       </c>
       <c r="F97">
-        <v>11.28277637145276</v>
+        <v>11.275206218417</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11.19833361034163</v>
+        <v>11.30405939544823</v>
       </c>
       <c r="C98">
-        <v>11.3253554309368</v>
+        <v>11.30859943293664</v>
       </c>
       <c r="D98">
-        <v>11.30830730066328</v>
+        <v>11.31336889240854</v>
       </c>
       <c r="E98">
-        <v>11.31858278331683</v>
+        <v>11.30495759767402</v>
       </c>
       <c r="F98">
-        <v>11.30586533063665</v>
+        <v>11.29917949211448</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11.22127568928809</v>
+        <v>11.32802162807178</v>
       </c>
       <c r="C99">
-        <v>11.34853251324503</v>
+        <v>11.33267211547279</v>
       </c>
       <c r="D99">
-        <v>11.33133517622856</v>
+        <v>11.33734368944973</v>
       </c>
       <c r="E99">
-        <v>11.34141305233942</v>
+        <v>11.32889570501971</v>
       </c>
       <c r="F99">
-        <v>11.32888871126947</v>
+        <v>11.32308244340418</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11.24418166849331</v>
+        <v>11.35190794178921</v>
       </c>
       <c r="C100">
-        <v>11.37163562373887</v>
+        <v>11.35666707281729</v>
       </c>
       <c r="D100">
-        <v>11.35429006750537</v>
+        <v>11.3612375767165</v>
       </c>
       <c r="E100">
-        <v>11.36417439042447</v>
+        <v>11.35275869563736</v>
       </c>
       <c r="F100">
-        <v>11.35184659386133</v>
+        <v>11.3469146145216</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>11.26705156447355</v>
+        <v>11.3757179525437</v>
       </c>
       <c r="C101">
-        <v>11.39466476403279</v>
+        <v>11.38058387918556</v>
       </c>
       <c r="D101">
-        <v>11.3771720808402</v>
+        <v>11.38505019173042</v>
       </c>
       <c r="E101">
-        <v>11.38686689544918</v>
+        <v>11.37654620994314</v>
       </c>
       <c r="F101">
-        <v>11.37473905962919</v>
+        <v>11.37067556072028</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>11.28988539390264</v>
+        <v>11.39945129462036</v>
       </c>
       <c r="C102">
-        <v>11.41761993765036</v>
+        <v>11.40442213214115</v>
       </c>
       <c r="D102">
-        <v>11.39998132278588</v>
+        <v>11.40878119764461</v>
       </c>
       <c r="E102">
-        <v>11.40949066513558</v>
+        <v>11.40025790397056</v>
       </c>
       <c r="F102">
-        <v>11.39756618987321</v>
+        <v>11.3943648503055</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>11.31268317355935</v>
+        <v>11.42310762046768</v>
       </c>
       <c r="C103">
-        <v>11.44050115255408</v>
+        <v>11.4281814515259</v>
       </c>
       <c r="D103">
-        <v>11.42271789985627</v>
+        <v>11.43243028250933</v>
       </c>
       <c r="E103">
-        <v>11.43204579716664</v>
+        <v>11.42389344841891</v>
       </c>
       <c r="F103">
-        <v>11.42032806633654</v>
+        <v>11.41798206484184</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.33544492039666</v>
+        <v>11.44668660027874</v>
       </c>
       <c r="C104">
-        <v>11.46330841885628</v>
+        <v>11.4518614788608</v>
       </c>
       <c r="D104">
-        <v>11.44538191869724</v>
+        <v>11.45599715852926</v>
       </c>
       <c r="E104">
-        <v>11.45453238914814</v>
+        <v>11.4474525285219</v>
       </c>
       <c r="F104">
-        <v>11.4430247708825</v>
+        <v>11.44152679773696</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>11.35817065146949</v>
+        <v>11.4701879205556</v>
       </c>
       <c r="C105">
-        <v>11.48604175052979</v>
+        <v>11.47546187655586</v>
       </c>
       <c r="D105">
-        <v>11.46797348589526</v>
+        <v>11.47948156132516</v>
       </c>
       <c r="E105">
-        <v>11.47695053860899</v>
+        <v>11.47093484315381</v>
       </c>
       <c r="F105">
-        <v>11.4656563856796</v>
+        <v>11.46499865467598</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>11.3808603839609</v>
+        <v>11.49361128462693</v>
       </c>
       <c r="C106">
-        <v>11.5087011638554</v>
+        <v>11.49898232706876</v>
       </c>
       <c r="D106">
-        <v>11.49049270814124</v>
+        <v>11.50288324917948</v>
       </c>
       <c r="E106">
-        <v>11.4993003430179</v>
+        <v>11.4943401047143</v>
       </c>
       <c r="F106">
-        <v>11.48822299302783</v>
+        <v>11.4883972535257</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>11.40351413520124</v>
+        <v>11.51695641097949</v>
       </c>
       <c r="C107">
-        <v>11.53128667848486</v>
+        <v>11.52242253239812</v>
       </c>
       <c r="D107">
-        <v>11.51293969208016</v>
+        <v>11.52620200225477</v>
       </c>
       <c r="E107">
-        <v>11.52158189977242</v>
+        <v>11.51766803829476</v>
       </c>
       <c r="F107">
-        <v>11.5107246755072</v>
+        <v>11.51172222316484</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>11.42613192260162</v>
+        <v>11.54022303329325</v>
       </c>
       <c r="C108">
-        <v>11.55379831605176</v>
+        <v>11.54578221309744</v>
       </c>
       <c r="D108">
-        <v>11.53531454439505</v>
+        <v>11.54943762185361</v>
       </c>
       <c r="E108">
-        <v>11.54379530620048</v>
+        <v>11.54091838157546</v>
       </c>
       <c r="F108">
-        <v>11.53316151577904</v>
+        <v>11.53497320392066</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11.44871376373662</v>
+        <v>11.56341090005502</v>
       </c>
       <c r="C109">
-        <v>11.57623610132319</v>
+        <v>11.56906110799452</v>
       </c>
       <c r="D109">
-        <v>11.55761737172988</v>
+        <v>11.57258992963241</v>
       </c>
       <c r="E109">
-        <v>11.56594065956404</v>
+        <v>11.56409088404843</v>
       </c>
       <c r="F109">
-        <v>11.5555335967365</v>
+        <v>11.55814984724618</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11.47125967626133</v>
+        <v>11.58651977323059</v>
       </c>
       <c r="C110">
-        <v>11.59860006048686</v>
+        <v>11.59225897305184</v>
       </c>
       <c r="D110">
-        <v>11.57984828077639</v>
+        <v>11.59565876680616</v>
       </c>
       <c r="E110">
-        <v>11.58801805705372</v>
+        <v>11.58718530692816</v>
       </c>
       <c r="F110">
-        <v>11.57784100136105</v>
+        <v>11.58125181490346</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>11.49376967796485</v>
+        <v>11.60954942884941</v>
       </c>
       <c r="C111">
-        <v>11.62089022330367</v>
+        <v>11.61537558126571</v>
       </c>
       <c r="D111">
-        <v>11.60200737819986</v>
+        <v>11.61864399337719</v>
       </c>
       <c r="E111">
-        <v>11.61002759579169</v>
+        <v>11.61020142242504</v>
       </c>
       <c r="F111">
-        <v>11.6000838128151</v>
+        <v>11.60427877931375</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>11.51624378674714</v>
+        <v>11.63249965543296</v>
       </c>
       <c r="C112">
-        <v>11.64310662203986</v>
+        <v>11.63841072147883</v>
       </c>
       <c r="D112">
-        <v>11.62409477062763</v>
+        <v>11.64154548730222</v>
       </c>
       <c r="E112">
-        <v>11.63196937283034</v>
+        <v>11.63313901366984</v>
       </c>
       <c r="F112">
-        <v>11.62226211435835</v>
+        <v>11.62723042304687</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.53868202060148</v>
+        <v>11.65537025414538</v>
       </c>
       <c r="C113">
-        <v>11.66524928857272</v>
+        <v>11.66136419835994</v>
       </c>
       <c r="D113">
-        <v>11.64611056475618</v>
+        <v>11.66436314370052</v>
       </c>
       <c r="E113">
-        <v>11.65384348515156</v>
+        <v>11.65599787403439</v>
       </c>
       <c r="F113">
-        <v>11.6443759893666</v>
+        <v>11.6501064383152</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.56108439765588</v>
+        <v>11.67816103839992</v>
       </c>
       <c r="C114">
-        <v>11.68731825942255</v>
+        <v>11.68423583124298</v>
       </c>
       <c r="D114">
-        <v>11.66805486722345</v>
+        <v>11.68709687405078</v>
       </c>
       <c r="E114">
-        <v>11.67565002967108</v>
+        <v>11.67877780706687</v>
       </c>
       <c r="F114">
-        <v>11.66642552131732</v>
+        <v>11.67290652729393</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>11.58345093610932</v>
+        <v>11.70087183273561</v>
       </c>
       <c r="C115">
-        <v>11.70931357330756</v>
+        <v>11.70702545409697</v>
       </c>
       <c r="D115">
-        <v>11.68992778459129</v>
+        <v>11.70974660538348</v>
       </c>
       <c r="E115">
-        <v>11.69738910323512</v>
+        <v>11.70147862585881</v>
       </c>
       <c r="F115">
-        <v>11.68841079385158</v>
+        <v>11.69563040137537</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>11.60578165429623</v>
+        <v>11.72350247339194</v>
       </c>
       <c r="C116">
-        <v>11.73123526970661</v>
+        <v>11.7297329145348</v>
       </c>
       <c r="D116">
-        <v>11.71172942349864</v>
+        <v>11.73231227947207</v>
       </c>
       <c r="E116">
-        <v>11.71906080261802</v>
+        <v>11.72410015298776</v>
       </c>
       <c r="F116">
-        <v>11.71033189065911</v>
+        <v>11.71827778099131</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>11.62807657063358</v>
+        <v>11.74605280683929</v>
       </c>
       <c r="C117">
-        <v>11.75308338877392</v>
+        <v>11.75235807359986</v>
       </c>
       <c r="D117">
-        <v>11.73345989051729</v>
+        <v>11.7547938520292</v>
       </c>
       <c r="E117">
-        <v>11.74066522452876</v>
+        <v>11.74664221992913</v>
       </c>
       <c r="F117">
-        <v>11.73218889539899</v>
+        <v>11.74084839591712</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>11.65033570363645</v>
+        <v>11.7685226900427</v>
       </c>
       <c r="C118">
-        <v>11.7748579749707</v>
+        <v>11.77490080509297</v>
       </c>
       <c r="D118">
-        <v>11.75511929216105</v>
+        <v>11.777191291913</v>
       </c>
       <c r="E118">
-        <v>11.7622024656093</v>
+        <v>11.76910466700485</v>
       </c>
       <c r="F118">
-        <v>11.75398189203018</v>
+        <v>11.76334198423615</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>11.67255907193167</v>
+        <v>11.79091199007336</v>
       </c>
       <c r="C119">
-        <v>11.79655907364783</v>
+        <v>11.79736099509339</v>
       </c>
       <c r="D119">
-        <v>11.77670773495073</v>
+        <v>11.79950458034646</v>
       </c>
       <c r="E119">
-        <v>11.78367262243365</v>
+        <v>11.79148734283693</v>
       </c>
       <c r="F119">
-        <v>11.77571096454317</v>
+        <v>11.78575829260741</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>11.69474669421505</v>
+        <v>11.8132205831505</v>
       </c>
       <c r="C120">
-        <v>11.81818673019994</v>
+        <v>11.81973854159364</v>
       </c>
       <c r="D120">
-        <v>11.79822532535732</v>
+        <v>11.82173371015162</v>
       </c>
       <c r="E120">
-        <v>11.80507579150432</v>
+        <v>11.81379010430195</v>
       </c>
       <c r="F120">
-        <v>11.7973761967095</v>
+        <v>11.80809707626304</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>11.71689858930417</v>
+        <v>11.83544835517638</v>
       </c>
       <c r="C121">
-        <v>11.83974099315289</v>
+        <v>11.84203335382408</v>
       </c>
       <c r="D121">
-        <v>11.81967216981268</v>
+        <v>11.84387868500133</v>
       </c>
       <c r="E121">
-        <v>11.82641206925636</v>
+        <v>11.83601281602295</v>
       </c>
       <c r="F121">
-        <v>11.81897767267638</v>
+        <v>11.83035809815789</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>11.73901477608313</v>
+        <v>11.85759520043694</v>
       </c>
       <c r="C122">
-        <v>11.86122191190329</v>
+        <v>11.86424535211037</v>
       </c>
       <c r="D122">
-        <v>11.84104837470354</v>
+        <v>11.86593951869034</v>
       </c>
       <c r="E122">
-        <v>11.84768155206207</v>
+        <v>11.85815535032931</v>
       </c>
       <c r="F122">
-        <v>11.84051547655449</v>
+        <v>11.85254112924604</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>11.76109527353819</v>
+        <v>11.87966102188475</v>
       </c>
       <c r="C123">
-        <v>11.88262953754285</v>
+        <v>11.88637446707293</v>
       </c>
       <c r="D123">
-        <v>11.8623540463782</v>
+        <v>11.88791623443391</v>
       </c>
       <c r="E123">
-        <v>11.86888433622493</v>
+        <v>11.88021758678436</v>
       </c>
       <c r="F123">
-        <v>11.86198969240077</v>
+        <v>11.87464594835246</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>11.78314010074322</v>
+        <v>11.90164573076928</v>
       </c>
       <c r="C124">
-        <v>11.90396392249746</v>
+        <v>11.90842063961035</v>
       </c>
       <c r="D124">
-        <v>11.88358929115572</v>
+        <v>11.90980886421024</v>
       </c>
       <c r="E124">
-        <v>11.89002051797971</v>
+        <v>11.90219941214944</v>
       </c>
       <c r="F124">
-        <v>11.88340040434703</v>
+        <v>11.89667234150588</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>11.80514927684328</v>
+        <v>11.92354924586031</v>
       </c>
       <c r="C125">
-        <v>11.92522512014513</v>
+        <v>11.93038382007783</v>
       </c>
       <c r="D125">
-        <v>11.90475421528632</v>
+        <v>11.9316174480763</v>
       </c>
       <c r="E125">
-        <v>11.91109019349166</v>
+        <v>11.92410071994542</v>
       </c>
       <c r="F125">
-        <v>11.90474769657114</v>
+        <v>11.91862010220165</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>11.82712282108959</v>
+        <v>11.94537149389399</v>
       </c>
       <c r="C126">
-        <v>11.94641318529814</v>
+        <v>11.95226396835225</v>
       </c>
       <c r="D126">
-        <v>11.9258489249864</v>
+        <v>11.95334203360929</v>
       </c>
       <c r="E126">
-        <v>11.93209345886454</v>
+        <v>11.94592141041964</v>
       </c>
       <c r="F126">
-        <v>11.92603165327071</v>
+        <v>11.94048903114256</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.84906075278704</v>
+        <v>11.96711240847041</v>
       </c>
       <c r="C127">
-        <v>11.96752817468376</v>
+        <v>11.97406105298681</v>
       </c>
       <c r="D127">
-        <v>11.94687352644685</v>
+        <v>11.97498267515841</v>
       </c>
       <c r="E127">
-        <v>11.95303041013358</v>
+        <v>11.96766139015772</v>
       </c>
       <c r="F127">
-        <v>11.94725235868233</v>
+        <v>11.9622789357659</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>11.87096309134657</v>
+        <v>11.98877193032031</v>
       </c>
       <c r="C128">
-        <v>11.98857014538769</v>
+        <v>11.99577505135597</v>
       </c>
       <c r="D128">
-        <v>11.96782812578518</v>
+        <v>11.99653943350624</v>
       </c>
       <c r="E128">
-        <v>11.97390114326755</v>
+        <v>11.98932057211505</v>
       </c>
       <c r="F128">
-        <v>11.96840989700812</v>
+        <v>11.98398963049179</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.89282985623922</v>
+        <v>12.01035000697282</v>
       </c>
       <c r="C129">
-        <v>12.00953915589341</v>
+        <v>12.01740594883126</v>
       </c>
       <c r="D129">
-        <v>11.98871282908358</v>
+        <v>12.01801237527379</v>
       </c>
       <c r="E129">
-        <v>11.99470575416788</v>
+        <v>12.01089887501938</v>
       </c>
       <c r="F129">
-        <v>11.98950435247661</v>
+        <v>12.00562093631546</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.91466106701009</v>
+        <v>12.03184659211864</v>
       </c>
       <c r="C130">
-        <v>12.03043526623506</v>
+        <v>12.03895373875652</v>
       </c>
       <c r="D130">
-        <v>12.0095277423894</v>
+        <v>12.03940157242709</v>
       </c>
       <c r="E130">
-        <v>12.01544433867146</v>
+        <v>12.03239622339543</v>
       </c>
       <c r="F130">
-        <v>12.01053580939254</v>
+        <v>12.02717268054911</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.93645674330009</v>
+        <v>12.05326164599315</v>
       </c>
       <c r="C131">
-        <v>12.05125853735071</v>
+        <v>12.06041842207233</v>
       </c>
       <c r="D131">
-        <v>12.0302729716891</v>
+        <v>12.06070710179717</v>
       </c>
       <c r="E131">
-        <v>12.03611699254877</v>
+        <v>12.0538125478031</v>
       </c>
       <c r="F131">
-        <v>12.03150435198818</v>
+        <v>12.04864469704745</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.95821690482606</v>
+        <v>12.07459513443801</v>
       </c>
       <c r="C132">
-        <v>12.07200903115721</v>
+        <v>12.08180000696818</v>
       </c>
       <c r="D132">
-        <v>12.0509486229217</v>
+        <v>12.08192904467139</v>
       </c>
       <c r="E132">
-        <v>12.05672381150461</v>
+        <v>12.07514778358002</v>
       </c>
       <c r="F132">
-        <v>12.05241006452031</v>
+        <v>12.07003682563257</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.97994157134688</v>
+        <v>12.09584702914918</v>
       </c>
       <c r="C133">
-        <v>12.09268681062286</v>
+        <v>12.10309850859178</v>
       </c>
       <c r="D133">
-        <v>12.07155480196564</v>
+        <v>12.10306748641371</v>
       </c>
       <c r="E133">
-        <v>12.07726489117992</v>
+        <v>12.096401871393</v>
       </c>
       <c r="F133">
-        <v>12.07325303129622</v>
+        <v>12.09134891209174</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12.00163076271651</v>
+        <v>12.11701730737679</v>
       </c>
       <c r="C134">
-        <v>12.1132919395412</v>
+        <v>12.12431394873627</v>
       </c>
       <c r="D134">
-        <v>12.09209161466648</v>
+        <v>12.12412251611247</v>
       </c>
       <c r="E134">
-        <v>12.09774032714861</v>
+        <v>12.11757475784123</v>
       </c>
       <c r="F134">
-        <v>12.09403333659337</v>
+        <v>12.11258080830217</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>12.02328449884934</v>
+        <v>12.13810595141686</v>
       </c>
       <c r="C135">
-        <v>12.13382448284482</v>
+        <v>12.14544635559064</v>
       </c>
       <c r="D135">
-        <v>12.11255916681485</v>
+        <v>12.14509422624723</v>
       </c>
       <c r="E135">
-        <v>12.1181502149202</v>
+        <v>12.13866639340426</v>
       </c>
       <c r="F135">
-        <v>12.11475106468632</v>
+        <v>12.13373237159658</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>12.04490279972222</v>
+        <v>12.15911294891932</v>
       </c>
       <c r="C136">
-        <v>12.15428450627962</v>
+        <v>12.16649576344804</v>
       </c>
       <c r="D136">
-        <v>12.13295756415165</v>
+        <v>12.1659827123768</v>
       </c>
       <c r="E136">
-        <v>12.13849464993938</v>
+        <v>12.15967673353189</v>
       </c>
       <c r="F136">
-        <v>12.13540629983888</v>
+        <v>12.15480346494223</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12.06648568537515</v>
+        <v>12.18003829211065</v>
       </c>
       <c r="C137">
-        <v>12.17467207657016</v>
+        <v>12.18746221247313</v>
       </c>
       <c r="D137">
-        <v>12.15328691236775</v>
+        <v>12.18678807286246</v>
       </c>
       <c r="E137">
-        <v>12.15877372758722</v>
+        <v>12.18060573905765</v>
       </c>
       <c r="F137">
-        <v>12.15599912629773</v>
+        <v>12.17579395690776</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>12.08803317592185</v>
+        <v>12.20088197801172</v>
       </c>
       <c r="C138">
-        <v>12.19498726115516</v>
+        <v>12.20834574845186</v>
       </c>
       <c r="D138">
-        <v>12.1735473170797</v>
+        <v>12.20751040861725</v>
       </c>
       <c r="E138">
-        <v>12.17898754317969</v>
+        <v>12.2014533744313</v>
       </c>
       <c r="F138">
-        <v>12.17652962831355</v>
+        <v>12.19670372114998</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>12.10954529153043</v>
+        <v>12.22164400816993</v>
       </c>
       <c r="C139">
-        <v>12.21523012827519</v>
+        <v>12.22914642252839</v>
       </c>
       <c r="D139">
-        <v>12.19373888382257</v>
+        <v>12.22814982287678</v>
       </c>
       <c r="E139">
-        <v>12.19913619196863</v>
+        <v>12.2222196086127</v>
       </c>
       <c r="F139">
-        <v>12.19699789011871</v>
+        <v>12.21753263659495</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12.13102205243219</v>
+        <v>12.24232438825715</v>
       </c>
       <c r="C140">
-        <v>12.23540074717714</v>
+        <v>12.24986429098858</v>
       </c>
       <c r="D140">
-        <v>12.21386171814642</v>
+        <v>12.24870642099064</v>
       </c>
       <c r="E140">
-        <v>12.21921976914209</v>
+        <v>12.24290441522626</v>
       </c>
       <c r="F140">
-        <v>12.21740399594853</v>
+        <v>12.23828058732225</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.15246347892379</v>
+        <v>12.26292312831939</v>
       </c>
       <c r="C141">
-        <v>12.25549918795619</v>
+        <v>12.27049941501512</v>
       </c>
       <c r="D141">
-        <v>12.23391592551803</v>
+        <v>12.26918031022773</v>
       </c>
       <c r="E141">
-        <v>12.23923836982379</v>
+        <v>12.26350777144625</v>
       </c>
       <c r="F141">
-        <v>12.23774802998873</v>
+        <v>12.25894746217087</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>12.17386959135788</v>
+        <v>12.28344024212914</v>
       </c>
       <c r="C142">
-        <v>12.2755255210091</v>
+        <v>12.29105186046293</v>
       </c>
       <c r="D142">
-        <v>12.2539016113498</v>
+        <v>12.28957159960422</v>
       </c>
       <c r="E142">
-        <v>12.259192089074</v>
+        <v>12.2840296584723</v>
       </c>
       <c r="F142">
-        <v>12.25803007640931</v>
+        <v>12.27953315491506</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.19524041014339</v>
+        <v>12.30387574737988</v>
       </c>
       <c r="C143">
-        <v>12.29547981752421</v>
+        <v>12.31152169764021</v>
       </c>
       <c r="D143">
-        <v>12.27381888099933</v>
+        <v>12.30988039972876</v>
       </c>
       <c r="E143">
-        <v>12.27908102189</v>
+        <v>12.30447006159205</v>
       </c>
       <c r="F143">
-        <v>12.2782502193516</v>
+        <v>12.30003756405592</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.21657595574767</v>
+        <v>12.32422966544742</v>
       </c>
       <c r="C144">
-        <v>12.31536214928324</v>
+        <v>12.33190900109582</v>
       </c>
       <c r="D144">
-        <v>12.29366783975603</v>
+        <v>12.33010682266118</v>
       </c>
       <c r="E144">
-        <v>12.29890526320564</v>
+        <v>12.32482896947067</v>
       </c>
       <c r="F144">
-        <v>12.29840854293032</v>
+        <v>12.32046059256198</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>12.23787624869275</v>
+        <v>12.34450202107443</v>
       </c>
       <c r="C145">
-        <v>12.33517258861703</v>
+        <v>12.3522138494086</v>
       </c>
       <c r="D145">
-        <v>12.31344859284407</v>
+        <v>12.35025098179363</v>
       </c>
       <c r="E145">
-        <v>12.31866490789187</v>
+        <v>12.34510637435102</v>
       </c>
       <c r="F145">
-        <v>12.31850513135093</v>
+        <v>12.34080214803175</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>12.25914130955145</v>
+        <v>12.36469284256818</v>
       </c>
       <c r="C146">
-        <v>12.35491121045085</v>
+        <v>12.37243632497982</v>
       </c>
       <c r="D146">
-        <v>12.33316124545945</v>
+        <v>12.3703129917196</v>
       </c>
       <c r="E146">
-        <v>12.33836005075689</v>
+        <v>12.36530227220553</v>
       </c>
       <c r="F146">
-        <v>12.33854006862685</v>
+        <v>12.36106214238232</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12.28037115895041</v>
+        <v>12.38480216126801</v>
       </c>
       <c r="C147">
-        <v>12.37457808815502</v>
+        <v>12.39257651382729</v>
       </c>
       <c r="D147">
-        <v>12.35280590272722</v>
+        <v>12.39029296821212</v>
       </c>
       <c r="E147">
-        <v>12.35799078654614</v>
+        <v>12.38541666208999</v>
       </c>
       <c r="F147">
-        <v>12.35851343879341</v>
+        <v>12.38124049174174</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.301565817567</v>
+        <v>12.4048300117134</v>
       </c>
       <c r="C148">
-        <v>12.39417329584417</v>
+        <v>12.41263450538332</v>
       </c>
       <c r="D148">
-        <v>12.37238266971412</v>
+        <v>12.41019102792034</v>
       </c>
       <c r="E148">
-        <v>12.3775572099427</v>
+        <v>12.40544954626855</v>
       </c>
       <c r="F148">
-        <v>12.37842532584759</v>
+        <v>12.40133711658789</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12.32272530612724</v>
+        <v>12.42477643143268</v>
       </c>
       <c r="C149">
-        <v>12.41369690838514</v>
+        <v>12.43261039229725</v>
       </c>
       <c r="D149">
-        <v>12.3918916514282</v>
+        <v>12.43000728839498</v>
       </c>
       <c r="E149">
-        <v>12.39705941556749</v>
+        <v>12.4254009304266</v>
       </c>
       <c r="F149">
-        <v>12.39827581374502</v>
+        <v>12.42135194132668</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>12.34384964540538</v>
+        <v>12.4446414606996</v>
       </c>
       <c r="C150">
-        <v>12.43314900108859</v>
+        <v>12.45250427024042</v>
       </c>
       <c r="D150">
-        <v>12.41133295283852</v>
+        <v>12.44974186815764</v>
       </c>
       <c r="E150">
-        <v>12.41649749797952</v>
+        <v>12.44527082308262</v>
       </c>
       <c r="F150">
-        <v>12.41806498659941</v>
+        <v>12.4412848943664</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12.36493885622474</v>
+        <v>12.46442514268688</v>
       </c>
       <c r="C151">
-        <v>12.45252965018291</v>
+        <v>12.47231623771228</v>
       </c>
       <c r="D151">
-        <v>12.43070667886201</v>
+        <v>12.46939488641036</v>
       </c>
       <c r="E151">
-        <v>12.43587155167586</v>
+        <v>12.46505923563566</v>
       </c>
       <c r="F151">
-        <v>12.43779292827165</v>
+        <v>12.46113590814587</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12.38599295945266</v>
+        <v>12.48412752303003</v>
       </c>
       <c r="C152">
-        <v>12.47183893483244</v>
+        <v>12.49204639585018</v>
       </c>
       <c r="D152">
-        <v>12.45001293432178</v>
+        <v>12.48896646317912</v>
       </c>
       <c r="E152">
-        <v>12.45518167109203</v>
+        <v>12.48476618257176</v>
       </c>
       <c r="F152">
-        <v>12.45745972262964</v>
+        <v>12.48090491875153</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12.40701197600314</v>
+        <v>12.50374864997245</v>
       </c>
       <c r="C153">
-        <v>12.49107693072816</v>
+        <v>12.51169484824292</v>
       </c>
       <c r="D153">
-        <v>12.46925182399919</v>
+        <v>12.50845671911519</v>
       </c>
       <c r="E153">
-        <v>12.47442795060212</v>
+        <v>12.50439168102112</v>
       </c>
       <c r="F153">
-        <v>12.47706545351773</v>
+        <v>12.50059186603656</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12.42799592683392</v>
+        <v>12.52328857417909</v>
       </c>
       <c r="C154">
-        <v>12.51024371554213</v>
+        <v>12.53126170074864</v>
       </c>
       <c r="D154">
-        <v>12.4884234526166</v>
+        <v>12.52786577550835</v>
       </c>
       <c r="E154">
-        <v>12.49361048451885</v>
+        <v>12.52393575070399</v>
       </c>
       <c r="F154">
-        <v>12.4966102047387</v>
+        <v>12.52019669357918</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>12.44894483294549</v>
+        <v>12.54274734856629</v>
       </c>
       <c r="C155">
-        <v>12.52933936736688</v>
+        <v>12.55074706131748</v>
       </c>
       <c r="D155">
-        <v>12.50752792483702</v>
+        <v>12.54719375419021</v>
       </c>
       <c r="E155">
-        <v>12.51272936709415</v>
+        <v>12.54339841409915</v>
       </c>
       <c r="F155">
-        <v>12.51609406016443</v>
+        <v>12.53971934837528</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>12.46985871538067</v>
+        <v>12.56212502851645</v>
       </c>
       <c r="C156">
-        <v>12.54836396468899</v>
+        <v>12.57015103981986</v>
       </c>
       <c r="D156">
-        <v>12.52656534530275</v>
+        <v>12.56644077750138</v>
       </c>
       <c r="E156">
-        <v>12.53178469251905</v>
+        <v>12.56277969614138</v>
       </c>
       <c r="F156">
-        <v>12.53551710354837</v>
+        <v>12.55915978101227</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12.49073759522295</v>
+        <v>12.58142167125049</v>
       </c>
       <c r="C157">
-        <v>12.56731758755958</v>
+        <v>12.58947374788004</v>
       </c>
       <c r="D157">
-        <v>12.54553581859919</v>
+        <v>12.58560696828288</v>
       </c>
       <c r="E157">
-        <v>12.55077655492397</v>
+        <v>12.58207962410172</v>
       </c>
       <c r="F157">
-        <v>12.55487941857849</v>
+        <v>12.57851794553712</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>12.51158149359575</v>
+        <v>12.60063733602066</v>
       </c>
       <c r="C158">
-        <v>12.58620031639773</v>
+        <v>12.608715298718</v>
       </c>
       <c r="D158">
-        <v>12.56443944920172</v>
+        <v>12.60469244979515</v>
       </c>
       <c r="E158">
-        <v>12.56970504837891</v>
+        <v>12.60129822772516</v>
       </c>
       <c r="F158">
-        <v>12.57418108893112</v>
+        <v>12.59779379910201</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>12.53239043166128</v>
+        <v>12.61977208418664</v>
       </c>
       <c r="C159">
-        <v>12.60501223059822</v>
+        <v>12.62787580699819</v>
       </c>
       <c r="D159">
-        <v>12.58327634155536</v>
+        <v>12.62369734575759</v>
       </c>
       <c r="E159">
-        <v>12.58857026689365</v>
+        <v>12.62043553901338</v>
       </c>
       <c r="F159">
-        <v>12.59342219824206</v>
+        <v>12.61698730210155</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>12.55316443061948</v>
+        <v>12.63882597926037</v>
       </c>
       <c r="C160">
-        <v>12.62375341070406</v>
+        <v>12.64695538868683</v>
       </c>
       <c r="D160">
-        <v>12.60204660004782</v>
+        <v>12.64262178026622</v>
       </c>
       <c r="E160">
-        <v>12.60737230441836</v>
+        <v>12.63949159206963</v>
       </c>
       <c r="F160">
-        <v>12.6126028301341</v>
+        <v>12.63609841816525</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>12.57390351170757</v>
+        <v>12.65779908587322</v>
       </c>
       <c r="C161">
-        <v>12.64242393764734</v>
+        <v>12.66595416091779</v>
       </c>
       <c r="D161">
-        <v>12.62075032900944</v>
+        <v>12.66146587780501</v>
       </c>
       <c r="E161">
-        <v>12.62611125484299</v>
+        <v>12.65846642323135</v>
       </c>
       <c r="F161">
-        <v>12.63172306818519</v>
+        <v>12.65512711450889</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>12.59460769619811</v>
+        <v>12.67669147046259</v>
       </c>
       <c r="C162">
-        <v>12.66102389273203</v>
+        <v>12.68487224186942</v>
       </c>
       <c r="D162">
-        <v>12.63938763270878</v>
+        <v>12.68022976319971</v>
       </c>
       <c r="E162">
-        <v>12.64478721199789</v>
+        <v>12.67736007090395</v>
       </c>
       <c r="F162">
-        <v>12.65078299590512</v>
+        <v>12.67407336055846</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>12.61527700539924</v>
+        <v>12.69550320176741</v>
       </c>
       <c r="C163">
-        <v>12.67955335844066</v>
+        <v>12.70370975064711</v>
       </c>
       <c r="D163">
-        <v>12.65795861535756</v>
+        <v>12.69891356160203</v>
       </c>
       <c r="E163">
-        <v>12.66340026965409</v>
+        <v>12.69617257537161</v>
       </c>
       <c r="F163">
-        <v>12.66978269677658</v>
+        <v>12.69293712888979</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>12.63591146065316</v>
+        <v>12.71423434993594</v>
       </c>
       <c r="C164">
-        <v>12.69801241673039</v>
+        <v>12.72246680717788</v>
       </c>
       <c r="D164">
-        <v>12.67646338111405</v>
+        <v>12.71751739846972</v>
       </c>
       <c r="E164">
-        <v>12.6819505215234</v>
+        <v>12.71490397893917</v>
       </c>
       <c r="F164">
-        <v>12.68872225423987</v>
+        <v>12.71171839486858</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>12.65651108333499</v>
+        <v>12.73288498603006</v>
       </c>
       <c r="C165">
-        <v>12.71640115007841</v>
+        <v>12.74114353211375</v>
       </c>
       <c r="D165">
-        <v>12.69490203407599</v>
+        <v>12.7360413995403</v>
       </c>
       <c r="E165">
-        <v>12.70043806125863</v>
+        <v>12.7335543258073</v>
       </c>
       <c r="F165">
-        <v>12.70760175169673</v>
+        <v>12.73041713799262</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>12.67707589485316</v>
+        <v>12.75145518272793</v>
       </c>
       <c r="C166">
-        <v>12.73471964139623</v>
+        <v>12.75974004674388</v>
       </c>
       <c r="D166">
-        <v>12.71327467828302</v>
+        <v>12.75448569083108</v>
       </c>
       <c r="E166">
-        <v>12.71886298245395</v>
+        <v>12.75212366185415</v>
       </c>
       <c r="F166">
-        <v>12.72642127250929</v>
+        <v>12.74903333893758</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>12.69760591664691</v>
+        <v>12.76994501498442</v>
       </c>
       <c r="C167">
-        <v>12.75296797392951</v>
+        <v>12.77825647291548</v>
       </c>
       <c r="D167">
-        <v>12.73158141771653</v>
+        <v>12.77285039860696</v>
       </c>
       <c r="E167">
-        <v>12.73722537864498</v>
+        <v>12.77061203477877</v>
       </c>
       <c r="F167">
-        <v>12.74518089998529</v>
+        <v>12.76756698153924</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>12.7181011701868</v>
+        <v>12.78835455825986</v>
       </c>
       <c r="C168">
-        <v>12.77114623129625</v>
+        <v>12.79669293296321</v>
       </c>
       <c r="D168">
-        <v>12.74982235633268</v>
+        <v>12.79113564938579</v>
       </c>
       <c r="E168">
-        <v>12.75552534330865</v>
+        <v>12.78901949401189</v>
       </c>
       <c r="F168">
-        <v>12.76388071739206</v>
+        <v>12.78601805222366</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>12.73856167697341</v>
+        <v>12.80668388934545</v>
       </c>
       <c r="C169">
-        <v>12.78925449762971</v>
+        <v>12.8150495496456</v>
       </c>
       <c r="D169">
-        <v>12.76799759801708</v>
+        <v>12.80934156991267</v>
       </c>
       <c r="E169">
-        <v>12.77376296986381</v>
+        <v>12.80734609048721</v>
       </c>
       <c r="F169">
-        <v>12.78252080795135</v>
+        <v>12.80438654071782</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>12.75898745853629</v>
+        <v>12.82493308633576</v>
       </c>
       <c r="C170">
-        <v>12.80729285703491</v>
+        <v>12.83332644608899</v>
       </c>
       <c r="D170">
-        <v>12.78610724657385</v>
+        <v>12.82746828715525</v>
       </c>
       <c r="E170">
-        <v>12.79193835167136</v>
+        <v>12.82559187677452</v>
       </c>
       <c r="F170">
-        <v>12.80110125484445</v>
+        <v>12.82267243882915</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.77937853643396</v>
+        <v>12.84310222901833</v>
       </c>
       <c r="C171">
-        <v>12.82526139404108</v>
+        <v>12.85152374573804</v>
       </c>
       <c r="D171">
-        <v>12.80415140576637</v>
+        <v>12.84551592829094</v>
       </c>
       <c r="E171">
-        <v>12.81005158203437</v>
+        <v>12.84375690702092</v>
       </c>
       <c r="F171">
-        <v>12.819622141225</v>
+        <v>12.84087574060422</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.79973493225218</v>
+        <v>12.86119139765957</v>
       </c>
       <c r="C172">
-        <v>12.84316019345752</v>
+        <v>12.86964157231222</v>
       </c>
       <c r="D172">
-        <v>12.82213017930183</v>
+        <v>12.86348462069396</v>
       </c>
       <c r="E172">
-        <v>12.82810275419836</v>
+        <v>12.86184123671839</v>
       </c>
       <c r="F172">
-        <v>12.83808355017003</v>
+        <v>12.8589964426676</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.82005666760403</v>
+        <v>12.87920067378385</v>
       </c>
       <c r="C173">
-        <v>12.86098934036089</v>
+        <v>12.88768004976768</v>
       </c>
       <c r="D173">
-        <v>12.84004367083134</v>
+        <v>12.88137449193094</v>
       </c>
       <c r="E173">
-        <v>12.84609196135151</v>
+        <v>12.87984492282089</v>
       </c>
       <c r="F173">
-        <v>12.85648556472154</v>
+        <v>12.87703454426052</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.8403437641289</v>
+        <v>12.89713014002312</v>
       </c>
       <c r="C174">
-        <v>12.87874892029719</v>
+        <v>12.90563930226386</v>
       </c>
       <c r="D174">
-        <v>12.85789198395937</v>
+        <v>12.89918566974625</v>
       </c>
       <c r="E174">
-        <v>12.8640192966247</v>
+        <v>12.89776802370177</v>
       </c>
       <c r="F174">
-        <v>12.87482826787414</v>
+        <v>12.89499004709398</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.86059624349146</v>
+        <v>12.91497988019275</v>
       </c>
       <c r="C175">
-        <v>12.89643901903047</v>
+        <v>12.92351945413473</v>
       </c>
       <c r="D175">
-        <v>12.87567522222938</v>
+        <v>12.91691828206106</v>
       </c>
       <c r="E175">
-        <v>12.88188485309188</v>
+        <v>12.91561059894429</v>
       </c>
       <c r="F175">
-        <v>12.89311174257719</v>
+        <v>12.91286295471719</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.88081412738196</v>
+        <v>12.93274997869728</v>
       </c>
       <c r="C176">
-        <v>12.91405972235025</v>
+        <v>12.94132062986353</v>
       </c>
       <c r="D176">
-        <v>12.89339348912465</v>
+        <v>12.93457245696012</v>
       </c>
       <c r="E176">
-        <v>12.8996887237702</v>
+        <v>12.93337270943919</v>
       </c>
       <c r="F176">
-        <v>12.91133607177281</v>
+        <v>12.93065327307974</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.90099743751428</v>
+        <v>12.95044052093055</v>
       </c>
       <c r="C177">
-        <v>12.93161111640184</v>
+        <v>12.95904295406118</v>
       </c>
       <c r="D177">
-        <v>12.91104688807682</v>
+        <v>12.95214832269048</v>
       </c>
       <c r="E177">
-        <v>12.91743100162022</v>
+        <v>12.95105441737918</v>
       </c>
       <c r="F177">
-        <v>12.92950133830189</v>
+        <v>12.94836101037643</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.92114619562628</v>
+        <v>12.96805159328924</v>
       </c>
       <c r="C178">
-        <v>12.94909328755593</v>
+        <v>12.976686551449</v>
       </c>
       <c r="D178">
-        <v>12.92863552246254</v>
+        <v>12.96964600765033</v>
       </c>
       <c r="E178">
-        <v>12.93511177954614</v>
+        <v>12.96865578601392</v>
       </c>
       <c r="F178">
-        <v>12.94760762497796</v>
+        <v>12.96598617727277</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.94126042347898</v>
+        <v>12.98558328298163</v>
       </c>
       <c r="C179">
-        <v>12.96650632239735</v>
+        <v>12.99425154684018</v>
       </c>
       <c r="D179">
-        <v>12.94615949560349</v>
+        <v>12.9870656403844</v>
       </c>
       <c r="E179">
-        <v>12.9527311503959</v>
+        <v>12.98617687977121</v>
       </c>
       <c r="F179">
-        <v>12.96565501456696</v>
+        <v>12.98352878605482</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.96134014285544</v>
+        <v>13.00303567780628</v>
       </c>
       <c r="C180">
-        <v>12.98385030848165</v>
+        <v>13.01173806512816</v>
       </c>
       <c r="D180">
-        <v>12.96361891075958</v>
+        <v>13.00440734958117</v>
       </c>
       <c r="E180">
-        <v>12.97028920696153</v>
+        <v>13.00361776427159</v>
       </c>
       <c r="F180">
-        <v>12.98364358978685</v>
+        <v>13.00098885121949</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.98138537556161</v>
+        <v>13.02040886634288</v>
       </c>
       <c r="C181">
-        <v>13.00112533271339</v>
+        <v>13.02914623126217</v>
       </c>
       <c r="D181">
-        <v>12.98101387114087</v>
+        <v>13.02167126406308</v>
       </c>
       <c r="E181">
-        <v>12.98778604197926</v>
+        <v>13.02097850606463</v>
       </c>
       <c r="F181">
-        <v>13.00157343333734</v>
+        <v>13.01836638925318</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.00139614342356</v>
+        <v>13.03770293823783</v>
       </c>
       <c r="C182">
-        <v>13.01833148241384</v>
+        <v>13.04647617026328</v>
       </c>
       <c r="D182">
-        <v>12.99834447990476</v>
+        <v>13.03885751278583</v>
       </c>
       <c r="E182">
-        <v>13.00522174812972</v>
+        <v>13.03825917275516</v>
       </c>
       <c r="F182">
-        <v>13.01944462783739</v>
+        <v>13.03566141902155</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.02137246828802</v>
+        <v>13.05491798352629</v>
       </c>
       <c r="C183">
-        <v>13.03546884517575</v>
+        <v>13.06372800718088</v>
       </c>
       <c r="D183">
-        <v>13.01561084015162</v>
+        <v>13.05596622483039</v>
       </c>
       <c r="E183">
-        <v>13.02259641803818</v>
+        <v>13.05545983300789</v>
       </c>
       <c r="F183">
-        <v>13.03725725586721</v>
+        <v>13.05287396084518</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.0413143720221</v>
+        <v>13.07205409285948</v>
       </c>
       <c r="C184">
-        <v>13.05253750879365</v>
+        <v>13.08090186711964</v>
       </c>
       <c r="D184">
-        <v>13.03281305492708</v>
+        <v>13.07299752940176</v>
       </c>
       <c r="E184">
-        <v>13.03991014427471</v>
+        <v>13.07258055633078</v>
       </c>
       <c r="F184">
-        <v>13.05501139996127</v>
+        <v>13.07000403706492</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.06122187651443</v>
+        <v>13.08911135755167</v>
       </c>
       <c r="C185">
-        <v>13.06953756135969</v>
+        <v>13.09799787521934</v>
       </c>
       <c r="D185">
-        <v>13.04995122722207</v>
+        <v>13.08995155582211</v>
       </c>
       <c r="E185">
-        <v>13.05716301935445</v>
+        <v>13.08962141316535</v>
       </c>
       <c r="F185">
-        <v>13.07270714260635</v>
+        <v>13.08705167185933</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.08109500366951</v>
+        <v>13.10608986997402</v>
       </c>
       <c r="C186">
-        <v>13.08646909148951</v>
+        <v>13.11501615665306</v>
       </c>
       <c r="D186">
-        <v>13.06702545997744</v>
+        <v>13.10682843352831</v>
       </c>
       <c r="E186">
-        <v>13.07435513573773</v>
+        <v>13.10658247490832</v>
       </c>
       <c r="F186">
-        <v>13.09034456624997</v>
+        <v>13.10401689158542</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.10093377541091</v>
+        <v>13.12298972254623</v>
       </c>
       <c r="C187">
-        <v>13.10333218743494</v>
+        <v>13.13195683661328</v>
       </c>
       <c r="D187">
-        <v>13.08403585607584</v>
+        <v>13.12362829207218</v>
       </c>
       <c r="E187">
-        <v>13.09148658583028</v>
+        <v>13.12346381370109</v>
       </c>
       <c r="F187">
-        <v>13.10792375328534</v>
+        <v>13.12089972418118</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.12073821368184</v>
+        <v>13.13981100840219</v>
       </c>
       <c r="C188">
-        <v>13.12012693786641</v>
+        <v>13.14882004031398</v>
       </c>
       <c r="D188">
-        <v>13.10098251834507</v>
+        <v>13.14035126110992</v>
       </c>
       <c r="E188">
-        <v>13.10855746198348</v>
+        <v>13.1402655025152</v>
       </c>
       <c r="F188">
-        <v>13.12544478605671</v>
+        <v>13.13770019919704</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.14050834044435</v>
+        <v>13.15655382123762</v>
       </c>
       <c r="C189">
-        <v>13.13685343164186</v>
+        <v>13.16560589298324</v>
       </c>
       <c r="D189">
-        <v>13.11786554955997</v>
+        <v>13.15699747039801</v>
       </c>
       <c r="E189">
-        <v>13.12556785649453</v>
+        <v>13.15698761519315</v>
       </c>
       <c r="F189">
-        <v>13.1429077468624</v>
+        <v>13.15441834798263</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.16024417767388</v>
+        <v>13.17321825537721</v>
       </c>
       <c r="C190">
-        <v>13.1535117578006</v>
+        <v>13.18231451986501</v>
       </c>
       <c r="D190">
-        <v>13.13468505244139</v>
+        <v>13.17356704979065</v>
       </c>
       <c r="E190">
-        <v>13.14251786160666</v>
+        <v>13.17363022622489</v>
       </c>
       <c r="F190">
-        <v>13.16031271795276</v>
+        <v>13.17105420374502</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.17994574736354</v>
+        <v>13.18980440543647</v>
       </c>
       <c r="C191">
-        <v>13.17010200567453</v>
+        <v>13.19894604621674</v>
       </c>
       <c r="D191">
-        <v>13.15144112965635</v>
+        <v>13.19006012925783</v>
       </c>
       <c r="E191">
-        <v>13.15940756950935</v>
+        <v>13.19019341084164</v>
       </c>
       <c r="F191">
-        <v>13.17765978153325</v>
+        <v>13.18760780147095</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.19961307152527</v>
+        <v>13.20631236654321</v>
       </c>
       <c r="C192">
-        <v>13.18662426473723</v>
+        <v>13.21550059730741</v>
       </c>
       <c r="D192">
-        <v>13.16813388383359</v>
+        <v>13.20647683884545</v>
       </c>
       <c r="E192">
-        <v>13.17623707233866</v>
+        <v>13.20667724506438</v>
       </c>
       <c r="F192">
-        <v>13.1949490197605</v>
+        <v>13.20407917744757</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.21924617218576</v>
+        <v>13.22274223432125</v>
       </c>
       <c r="C193">
-        <v>13.20307862453184</v>
+        <v>13.23197829841631</v>
       </c>
       <c r="D193">
-        <v>13.18476341753376</v>
+        <v>13.22281730870203</v>
       </c>
       <c r="E193">
-        <v>13.19300646217704</v>
+        <v>13.22308180548204</v>
       </c>
       <c r="F193">
-        <v>13.21218051474043</v>
+        <v>13.2204683696885</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.23884507138542</v>
+        <v>13.23909410482626</v>
       </c>
       <c r="C194">
-        <v>13.21946517482686</v>
+        <v>13.24837927483041</v>
       </c>
       <c r="D194">
-        <v>13.20132983326482</v>
+        <v>13.23908166907023</v>
       </c>
       <c r="E194">
-        <v>13.20971583105388</v>
+        <v>13.23940716934575</v>
       </c>
       <c r="F194">
-        <v>13.22935434853222</v>
+        <v>13.23677541781973</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.25840979118022</v>
+        <v>13.25536807440968</v>
       </c>
       <c r="C195">
-        <v>13.23578400555248</v>
+        <v>13.26470365184416</v>
       </c>
       <c r="D195">
-        <v>13.21783323348493</v>
+        <v>13.25527005027669</v>
       </c>
       <c r="E195">
-        <v>13.22636527094558</v>
+        <v>13.25565341460922</v>
       </c>
       <c r="F195">
-        <v>13.24647060314675</v>
+        <v>13.25300036326324</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.27794035364356</v>
+        <v>13.27156423981894</v>
       </c>
       <c r="C196">
-        <v>13.25203520679514</v>
+        <v>13.28095155475791</v>
       </c>
       <c r="D196">
-        <v>13.23427372059983</v>
+        <v>13.27138258273666</v>
       </c>
       <c r="E196">
-        <v>13.24295487377583</v>
+        <v>13.27182061973934</v>
       </c>
       <c r="F196">
-        <v>13.26352936054936</v>
+        <v>13.2691432486058</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.29743678086038</v>
+        <v>13.28768269830745</v>
       </c>
       <c r="C197">
-        <v>13.26821886884471</v>
+        <v>13.29712310887838</v>
       </c>
       <c r="D197">
-        <v>13.25065139696302</v>
+        <v>13.28741939694971</v>
       </c>
       <c r="E197">
-        <v>13.25948473141572</v>
+        <v>13.28790886378827</v>
       </c>
       <c r="F197">
-        <v>13.28053070265893</v>
+        <v>13.28520411804361</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.31689909492972</v>
+        <v>13.30372354736527</v>
       </c>
       <c r="C198">
-        <v>13.28433508207646</v>
+        <v>13.31321843951823</v>
       </c>
       <c r="D198">
-        <v>13.26696636488402</v>
+        <v>13.30338062349768</v>
       </c>
       <c r="E198">
-        <v>13.27595493568421</v>
+        <v>13.30391822642658</v>
       </c>
       <c r="F198">
-        <v>13.29747471134044</v>
+        <v>13.30118301722432</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.3363273179643</v>
+        <v>13.31968688476565</v>
       </c>
       <c r="C199">
-        <v>13.30038393702517</v>
+        <v>13.32923767199543</v>
       </c>
       <c r="D199">
-        <v>13.28321872661199</v>
+        <v>13.31926639304231</v>
       </c>
       <c r="E199">
-        <v>13.29236557834781</v>
+        <v>13.31984878779771</v>
       </c>
       <c r="F199">
-        <v>13.31436146841304</v>
+        <v>13.31707999350992</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.35572147209171</v>
+        <v>13.33557280860471</v>
       </c>
       <c r="C200">
-        <v>13.31636552436608</v>
+        <v>13.34518093163328</v>
       </c>
       <c r="D200">
-        <v>13.29940858434584</v>
+        <v>13.33507683632291</v>
       </c>
       <c r="E200">
-        <v>13.3087167511212</v>
+        <v>13.33570062855537</v>
       </c>
       <c r="F200">
-        <v>13.33119105564747</v>
+        <v>13.33289509536869</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13.37508157945009</v>
+        <v>13.35138141750214</v>
       </c>
       <c r="C201">
-        <v>13.33227993490676</v>
+        <v>13.36104834376045</v>
       </c>
       <c r="D201">
-        <v>13.31553604023437</v>
+        <v>13.35081208415968</v>
       </c>
       <c r="E201">
-        <v>13.32500854566731</v>
+        <v>13.35147382990445</v>
       </c>
       <c r="F201">
-        <v>13.34796355476883</v>
+        <v>13.34862837273915</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13.39440766219059</v>
+        <v>13.36711281009755</v>
       </c>
       <c r="C202">
-        <v>13.34812725964808</v>
+        <v>13.37684003371088</v>
       </c>
       <c r="D202">
-        <v>13.33160119637539</v>
+        <v>13.3664722674437</v>
       </c>
       <c r="E202">
-        <v>13.34124105359753</v>
+        <v>13.36716847348115</v>
       </c>
       <c r="F202">
-        <v>13.3646790474615</v>
+        <v>13.36427987692229</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13.41369974247745</v>
+        <v>13.38276708537366</v>
       </c>
       <c r="C203">
-        <v>13.3639075898878</v>
+        <v>13.39255612682381</v>
       </c>
       <c r="D203">
-        <v>13.3476041548159</v>
+        <v>13.38205751714232</v>
       </c>
       <c r="E203">
-        <v>13.35741436647191</v>
+        <v>13.38278464136768</v>
       </c>
       <c r="F203">
-        <v>13.38133761534915</v>
+        <v>13.379849660735</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.43295784248918</v>
+        <v>13.39834434258929</v>
       </c>
       <c r="C204">
-        <v>13.3796210167468</v>
+        <v>13.40819674844413</v>
       </c>
       <c r="D204">
-        <v>13.36354501754919</v>
+        <v>13.39756796429709</v>
       </c>
       <c r="E204">
-        <v>13.37352857579941</v>
+        <v>13.39832241612787</v>
       </c>
       <c r="F204">
-        <v>13.3979393400125</v>
+        <v>13.39533777822469</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.45218198441118</v>
+        <v>13.41384468136409</v>
       </c>
       <c r="C205">
-        <v>13.39526763159535</v>
+        <v>13.42376202392258</v>
       </c>
       <c r="D205">
-        <v>13.37942388652166</v>
+        <v>13.41300374001784</v>
       </c>
       <c r="E205">
-        <v>13.38958377303802</v>
+        <v>13.41378188072213</v>
       </c>
       <c r="F205">
-        <v>13.4144843029843</v>
+        <v>13.41074428465904</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.47137219044131</v>
+        <v>13.42926820138661</v>
       </c>
       <c r="C206">
-        <v>13.41084752592509</v>
+        <v>13.43925207861624</v>
       </c>
       <c r="D206">
-        <v>13.39524086362855</v>
+        <v>13.42836497549046</v>
       </c>
       <c r="E206">
-        <v>13.40558004959498</v>
+        <v>13.42916311849997</v>
       </c>
       <c r="F206">
-        <v>13.43097258575007</v>
+        <v>13.42606923662355</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.49052848278786</v>
+        <v>13.44461500261477</v>
       </c>
       <c r="C207">
-        <v>13.42636079134498</v>
+        <v>13.45466703788853</v>
       </c>
       <c r="D207">
-        <v>13.41099605071469</v>
+        <v>13.44365180196635</v>
       </c>
       <c r="E207">
-        <v>13.42151749682698</v>
+        <v>13.44446621324565</v>
       </c>
       <c r="F207">
-        <v>13.44740426975529</v>
+        <v>13.44131269205295</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.50965088366913</v>
+        <v>13.45988518525554</v>
       </c>
       <c r="C208">
-        <v>13.44180751971365</v>
+        <v>13.47000702711</v>
       </c>
       <c r="D208">
-        <v>13.42668954957492</v>
+        <v>13.45886435076634</v>
       </c>
       <c r="E208">
-        <v>13.43739620604043</v>
+        <v>13.45969124910292</v>
       </c>
       <c r="F208">
-        <v>13.46377943638722</v>
+        <v>13.4564747101971</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.52873941532228</v>
+        <v>13.47507884974247</v>
       </c>
       <c r="C209">
-        <v>13.45718780295211</v>
+        <v>13.48527217165819</v>
       </c>
       <c r="D209">
-        <v>13.44232146195432</v>
+        <v>13.47400275327841</v>
       </c>
       <c r="E209">
-        <v>13.45321626849159</v>
+        <v>13.47483831055397</v>
       </c>
       <c r="F209">
-        <v>13.48009816698952</v>
+        <v>13.47155535132857</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.54779409999038</v>
+        <v>13.49019609661993</v>
       </c>
       <c r="C210">
-        <v>13.47250173299704</v>
+        <v>13.50046259691866</v>
       </c>
       <c r="D210">
-        <v>13.45789188954565</v>
+        <v>13.48906714095627</v>
       </c>
       <c r="E210">
-        <v>13.46897777538683</v>
+        <v>13.48990748246713</v>
       </c>
       <c r="F210">
-        <v>13.4963605428584</v>
+        <v>13.48655467699191</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.56681495991949</v>
+        <v>13.50523702663343</v>
       </c>
       <c r="C211">
-        <v>13.4877494019582</v>
+        <v>13.51557842828525</v>
       </c>
       <c r="D211">
-        <v>13.47340093399557</v>
+        <v>13.50405764532114</v>
       </c>
       <c r="E211">
-        <v>13.48468081788279</v>
+        <v>13.50489885004099</v>
       </c>
       <c r="F211">
-        <v>13.51256664524264</v>
+        <v>13.50147274993892</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.58580201736867</v>
+        <v>13.52020174075864</v>
       </c>
       <c r="C212">
-        <v>13.50293090205453</v>
+        <v>13.53061979116044</v>
       </c>
       <c r="D212">
-        <v>13.48884869690037</v>
+        <v>13.51897439795666</v>
       </c>
       <c r="E212">
-        <v>13.50032548708657</v>
+        <v>13.51981249877177</v>
       </c>
       <c r="F212">
-        <v>13.52871655534815</v>
+        <v>13.51630963427131</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.60475529460565</v>
+        <v>13.53509034009819</v>
       </c>
       <c r="C213">
-        <v>13.51804632561098</v>
+        <v>13.5455868109564</v>
       </c>
       <c r="D213">
-        <v>13.5042352798071</v>
+        <v>13.53381753051109</v>
       </c>
       <c r="E213">
-        <v>13.51591187405596</v>
+        <v>13.53464851449571</v>
       </c>
       <c r="F213">
-        <v>13.54481035432841</v>
+        <v>13.53106539498217</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.6236748139065</v>
+        <v>13.54990292587762</v>
       </c>
       <c r="C214">
-        <v>13.5330957651929</v>
+        <v>13.56047961309493</v>
       </c>
       <c r="D214">
-        <v>13.51956078421382</v>
+        <v>13.5485871746964</v>
       </c>
       <c r="E214">
-        <v>13.53144006979964</v>
+        <v>13.54940698335067</v>
       </c>
       <c r="F214">
-        <v>13.56084812329135</v>
+        <v>13.54574009828092</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.64256059757747</v>
+        <v>13.56463959947309</v>
       </c>
       <c r="C215">
-        <v>13.54807931330143</v>
+        <v>13.57529832300864</v>
       </c>
       <c r="D215">
-        <v>13.53482531156981</v>
+        <v>13.56328346228539</v>
       </c>
       <c r="E215">
-        <v>13.54691016527737</v>
+        <v>13.56408799173797</v>
       </c>
       <c r="F215">
-        <v>13.57682994329807</v>
+        <v>13.56033381148189</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.66141266790676</v>
+        <v>13.57930046249358</v>
       </c>
       <c r="C216">
-        <v>13.56299706259279</v>
+        <v>13.59004306614098</v>
       </c>
       <c r="D216">
-        <v>13.55002896328015</v>
+        <v>13.57790652511675</v>
       </c>
       <c r="E216">
-        <v>13.56232225140024</v>
+        <v>13.57869162635958</v>
       </c>
       <c r="F216">
-        <v>13.59275589536268</v>
+        <v>13.57484660319729</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.68023104719806</v>
+        <v>13.59388561656945</v>
       </c>
       <c r="C217">
-        <v>13.57784910582798</v>
+        <v>13.60471396794713</v>
       </c>
       <c r="D217">
-        <v>13.56517184069581</v>
+        <v>13.59245649508615</v>
       </c>
       <c r="E217">
-        <v>13.57767641903092</v>
+        <v>13.59321797419207</v>
       </c>
       <c r="F217">
-        <v>13.60862606045463</v>
+        <v>13.58927854290569</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.69901575776423</v>
+        <v>13.60839516347595</v>
       </c>
       <c r="C218">
-        <v>13.59263553586532</v>
+        <v>13.61931115389456</v>
       </c>
       <c r="D218">
-        <v>13.58025404512177</v>
+        <v>13.60693350414985</v>
       </c>
       <c r="E218">
-        <v>13.5929727589836</v>
+        <v>13.60766712244432</v>
       </c>
       <c r="F218">
-        <v>13.62444051949476</v>
+        <v>13.60362970120589</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.71776682192575</v>
+        <v>13.62282920511143</v>
       </c>
       <c r="C219">
-        <v>13.60735644568249</v>
+        <v>13.63383474946413</v>
       </c>
       <c r="D219">
-        <v>13.59527567781514</v>
+        <v>13.62133768432485</v>
       </c>
       <c r="E219">
-        <v>13.60821136202449</v>
+        <v>13.62203915861456</v>
       </c>
       <c r="F219">
-        <v>13.64019935335708</v>
+        <v>13.61790014975071</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.73648426201425</v>
+        <v>13.63718784355352</v>
       </c>
       <c r="C220">
-        <v>13.62201192840248</v>
+        <v>13.64828488014962</v>
       </c>
       <c r="D220">
-        <v>13.61023683998532</v>
+        <v>13.63566916769606</v>
       </c>
       <c r="E220">
-        <v>13.62339231887186</v>
+        <v>13.63633417045776</v>
       </c>
       <c r="F220">
-        <v>13.65590264286949</v>
+        <v>13.63208996134116</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.75516810038103</v>
+        <v>13.65147118088661</v>
       </c>
       <c r="C221">
-        <v>13.6366020771428</v>
+        <v>13.66266167145899</v>
       </c>
       <c r="D221">
-        <v>13.62513763279436</v>
+        <v>13.64992808639535</v>
       </c>
       <c r="E221">
-        <v>13.63851572019629</v>
+        <v>13.65055224589633</v>
       </c>
       <c r="F221">
-        <v>13.67155046881336</v>
+        <v>13.64619920975199</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.77381835936391</v>
+        <v>13.66567931931823</v>
       </c>
       <c r="C222">
-        <v>13.65112698515281</v>
+        <v>13.67696524891616</v>
       </c>
       <c r="D222">
-        <v>13.63997815736255</v>
+        <v>13.6641145726159</v>
       </c>
       <c r="E222">
-        <v>13.6535816566209</v>
+        <v>13.66469347308288</v>
       </c>
       <c r="F222">
-        <v>13.68714291192718</v>
+        <v>13.66022796971275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.79243506131646</v>
+        <v>13.67981236116843</v>
       </c>
       <c r="C223">
-        <v>13.66558674577074</v>
+        <v>13.69119573805969</v>
       </c>
       <c r="D223">
-        <v>13.65475851475561</v>
+        <v>13.67822875861386</v>
       </c>
       <c r="E223">
-        <v>13.66859021872163</v>
+        <v>13.6787579403663</v>
       </c>
       <c r="F223">
-        <v>13.70268005290136</v>
+        <v>13.67417631697893</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.81101822859938</v>
+        <v>13.69387040886891</v>
       </c>
       <c r="C224">
-        <v>13.67998145242141</v>
+        <v>13.7053532644451</v>
       </c>
       <c r="D224">
-        <v>13.6694788059954</v>
+        <v>13.69227077670857</v>
       </c>
       <c r="E224">
-        <v>13.68354149702722</v>
+        <v>13.69274573641463</v>
       </c>
       <c r="F224">
-        <v>13.71816197237771</v>
+        <v>13.68804432834346</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.82956788358026</v>
+        <v>13.70785356487465</v>
       </c>
       <c r="C225">
-        <v>13.69431119867257</v>
+        <v>13.71943795364503</v>
       </c>
       <c r="D225">
-        <v>13.68413913205727</v>
+        <v>13.70624075926524</v>
       </c>
       <c r="E225">
-        <v>13.69843558201954</v>
+        <v>13.70665695011393</v>
       </c>
       <c r="F225">
-        <v>13.73358875095347</v>
+        <v>13.70183208162339</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.84808404863909</v>
+        <v>13.72176193173261</v>
       </c>
       <c r="C226">
-        <v>13.70857607814782</v>
+        <v>13.73344993124977</v>
       </c>
       <c r="D226">
-        <v>13.69873959387026</v>
+        <v>13.72013883871008</v>
       </c>
       <c r="E226">
-        <v>13.7132725641338</v>
+        <v>13.72049167033745</v>
       </c>
       <c r="F226">
-        <v>13.74896046917978</v>
+        <v>13.71553965547465</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.8665667461619</v>
+        <v>13.73559561209382</v>
       </c>
       <c r="C227">
-        <v>13.72277618451949</v>
+        <v>13.74738932286808</v>
       </c>
       <c r="D227">
-        <v>13.71328029231739</v>
+        <v>13.7339651475342</v>
       </c>
       <c r="E227">
-        <v>13.72805253375874</v>
+        <v>13.73424998620805</v>
       </c>
       <c r="F227">
-        <v>13.7642772075618</v>
+        <v>13.72916712954562</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.8850159985352</v>
+        <v>13.74935470866348</v>
       </c>
       <c r="C228">
-        <v>13.73691161156512</v>
+        <v>13.76125625412805</v>
       </c>
       <c r="D228">
-        <v>13.72776132823699</v>
+        <v>13.74771981828338</v>
       </c>
       <c r="E228">
-        <v>13.74277558123684</v>
+        <v>13.74793198700038</v>
       </c>
       <c r="F228">
-        <v>13.77953904655874</v>
+        <v>13.74271458443532</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.90343182815537</v>
+        <v>13.76303932418586</v>
       </c>
       <c r="C229">
-        <v>13.7509824531422</v>
+        <v>13.77505085067788</v>
       </c>
       <c r="D229">
-        <v>13.74218280242006</v>
+        <v>13.76140298355581</v>
       </c>
       <c r="E229">
-        <v>13.7574417968646</v>
+        <v>13.76153776237868</v>
       </c>
       <c r="F229">
-        <v>13.79474606658392</v>
+        <v>13.75618210178679</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.92181425742512</v>
+        <v>13.77664956146979</v>
       </c>
       <c r="C230">
-        <v>13.76498880318627</v>
+        <v>13.78877323818628</v>
       </c>
       <c r="D230">
-        <v>13.75654481561279</v>
+        <v>13.77501477600861</v>
       </c>
       <c r="E230">
-        <v>13.77205127089266</v>
+        <v>13.77506740222135</v>
       </c>
       <c r="F230">
-        <v>13.80989834801999</v>
+        <v>13.76956976399748</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>13.94016330875339</v>
+        <v>13.79018552342434</v>
       </c>
       <c r="C231">
-        <v>13.77893075580072</v>
+        <v>13.80242354234368</v>
       </c>
       <c r="D231">
-        <v>13.77084746851621</v>
+        <v>13.78855532836296</v>
       </c>
       <c r="E231">
-        <v>13.7866040935259</v>
+        <v>13.78852099620123</v>
       </c>
       <c r="F231">
-        <v>13.82499597118539</v>
+        <v>13.78287765442264</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.95847900456114</v>
+        <v>13.80364731296228</v>
       </c>
       <c r="C232">
-        <v>13.79280840504985</v>
+        <v>13.81600188886277</v>
       </c>
       <c r="D232">
-        <v>13.78509086178629</v>
+        <v>13.80202477339017</v>
       </c>
       <c r="E232">
-        <v>13.8011003549238</v>
+        <v>13.80189863429793</v>
       </c>
       <c r="F232">
-        <v>13.84003901635678</v>
+        <v>13.79610585730561</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.976761367269</v>
+        <v>13.81703503304902</v>
       </c>
       <c r="C233">
-        <v>13.80662184511428</v>
+        <v>13.82950840347919</v>
       </c>
       <c r="D233">
-        <v>13.7992750960341</v>
+        <v>13.8154232439194</v>
       </c>
       <c r="E233">
-        <v>13.8155401452006</v>
+        <v>13.81520040662438</v>
       </c>
       <c r="F233">
-        <v>13.8550275637675</v>
+        <v>13.80925445790318</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.99501041930445</v>
+        <v>13.830348786698</v>
       </c>
       <c r="C234">
-        <v>13.82037117025047</v>
+        <v>13.84294321195262</v>
       </c>
       <c r="D234">
-        <v>13.8134002718248</v>
+        <v>13.82875087283707</v>
       </c>
       <c r="E234">
-        <v>13.82992355442551</v>
+        <v>13.82842640361566</v>
       </c>
       <c r="F234">
-        <v>13.86996169360569</v>
+        <v>13.82232354221023</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.01322618310151</v>
+        <v>13.84358867700585</v>
       </c>
       <c r="C235">
-        <v>13.83405647478779</v>
+        <v>13.85630644006718</v>
       </c>
       <c r="D235">
-        <v>13.8274664896811</v>
+        <v>13.84200779308878</v>
       </c>
       <c r="E235">
-        <v>13.84425067262292</v>
+        <v>13.84157671589752</v>
       </c>
       <c r="F235">
-        <v>13.88484148601436</v>
+        <v>13.8353131971164</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.0314086810998</v>
+        <v>13.85675480705284</v>
       </c>
       <c r="C236">
-        <v>13.84767785314771</v>
+        <v>13.86959821363267</v>
       </c>
       <c r="D236">
-        <v>13.84147385008072</v>
+        <v>13.8551941376735</v>
       </c>
       <c r="E236">
-        <v>13.85852158977268</v>
+        <v>13.85465143393953</v>
       </c>
       <c r="F236">
-        <v>13.89966702109143</v>
+        <v>13.84822351036954</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.04955793574542</v>
+        <v>13.8698472799695</v>
       </c>
       <c r="C237">
-        <v>13.86123539985769</v>
+        <v>13.88281865848495</v>
       </c>
       <c r="D237">
-        <v>13.85542245345738</v>
+        <v>13.86831003964762</v>
       </c>
       <c r="E237">
-        <v>13.87273639581004</v>
+        <v>13.8676506484741</v>
       </c>
       <c r="F237">
-        <v>13.91443837889218</v>
+        <v>13.86105457063789</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.06767396949536</v>
+        <v>13.88286619892562</v>
       </c>
       <c r="C238">
-        <v>13.8747292094444</v>
+        <v>13.89596790048703</v>
       </c>
       <c r="D238">
-        <v>13.86931240020102</v>
+        <v>13.88135563212567</v>
       </c>
       <c r="E238">
-        <v>13.88689518062612</v>
+        <v>13.88057445035649</v>
       </c>
       <c r="F238">
-        <v>13.92915563945748</v>
+        <v>13.87380646739863</v>
       </c>
     </row>
   </sheetData>
